--- a/Output/1_Informacion_Demografica.xlsx
+++ b/Output/1_Informacion_Demografica.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">CVE_MUN</t>
   </si>
@@ -35,49 +35,25 @@
     <t xml:space="preserve">Población total</t>
   </si>
   <si>
-    <t xml:space="preserve">Población total%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población Mujeres</t>
   </si>
   <si>
-    <t xml:space="preserve">Población Mujeres%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población Hombres</t>
   </si>
   <si>
-    <t xml:space="preserve">Población Hombres%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población infantil (0-14 años)</t>
   </si>
   <si>
-    <t xml:space="preserve">Población infantil (0-14 años)%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población juvenil (15-29 años)</t>
   </si>
   <si>
-    <t xml:space="preserve">Población juvenil (15-29 años)%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población (18 años y más)</t>
   </si>
   <si>
-    <t xml:space="preserve">Población (18 años y más)%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población adulta (30-59 años)</t>
   </si>
   <si>
-    <t xml:space="preserve">Población adulta (30-59 años)%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Población adulta mayor (60 y más años)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Población adulta mayor (60 y más años)%</t>
   </si>
   <si>
     <t xml:space="preserve">13001</t>
@@ -956,37 +932,13 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>241.626989398186</v>
@@ -1004,57 +956,33 @@
         <v>22268</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00722320742458012</v>
+        <v>11563</v>
       </c>
       <c r="I2" t="n">
-        <v>11563</v>
+        <v>10705</v>
       </c>
       <c r="J2" t="n">
-        <v>0.519265313454284</v>
+        <v>6502</v>
       </c>
       <c r="K2" t="n">
-        <v>10705</v>
+        <v>5436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.480734686545716</v>
+        <v>14467</v>
       </c>
       <c r="M2" t="n">
-        <v>6502</v>
+        <v>7705</v>
       </c>
       <c r="N2" t="n">
-        <v>29.1988503682414</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5436</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.4117118735405</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14467</v>
-      </c>
-      <c r="R2" t="n">
-        <v>64.96766660679</v>
-      </c>
-      <c r="S2" t="n">
-        <v>7705</v>
-      </c>
-      <c r="T2" t="n">
-        <v>34.6012214837435</v>
-      </c>
-      <c r="U2" t="n">
         <v>2625</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11.7882162744746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>238.9</v>
@@ -1072,57 +1000,33 @@
         <v>46065</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0149423859355705</v>
+        <v>24348</v>
       </c>
       <c r="I3" t="n">
-        <v>24348</v>
+        <v>21717</v>
       </c>
       <c r="J3" t="n">
-        <v>0.528557473135786</v>
+        <v>15410</v>
       </c>
       <c r="K3" t="n">
-        <v>21717</v>
+        <v>11925</v>
       </c>
       <c r="L3" t="n">
-        <v>0.471442526864214</v>
+        <v>27787</v>
       </c>
       <c r="M3" t="n">
-        <v>15410</v>
+        <v>14536</v>
       </c>
       <c r="N3" t="n">
-        <v>33.452729838272</v>
-      </c>
-      <c r="O3" t="n">
-        <v>11925</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25.8873331162488</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>27787</v>
-      </c>
-      <c r="R3" t="n">
-        <v>60.3212851405623</v>
-      </c>
-      <c r="S3" t="n">
-        <v>14536</v>
-      </c>
-      <c r="T3" t="n">
-        <v>31.5554108325193</v>
-      </c>
-      <c r="U3" t="n">
         <v>4188</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.09150113969391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>271.8</v>
@@ -1140,57 +1044,33 @@
         <v>61002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0197875920295597</v>
+        <v>31925</v>
       </c>
       <c r="I4" t="n">
-        <v>31925</v>
+        <v>29077</v>
       </c>
       <c r="J4" t="n">
-        <v>0.523343496934527</v>
+        <v>15550</v>
       </c>
       <c r="K4" t="n">
-        <v>29077</v>
+        <v>14966</v>
       </c>
       <c r="L4" t="n">
-        <v>0.476656503065473</v>
+        <v>42294</v>
       </c>
       <c r="M4" t="n">
-        <v>15550</v>
+        <v>22645</v>
       </c>
       <c r="N4" t="n">
-        <v>25.490967509262</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>24.533621848464</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>42294</v>
-      </c>
-      <c r="R4" t="n">
-        <v>69.3321530441625</v>
-      </c>
-      <c r="S4" t="n">
-        <v>22645</v>
-      </c>
-      <c r="T4" t="n">
-        <v>37.1217337136487</v>
-      </c>
-      <c r="U4" t="n">
         <v>7839</v>
-      </c>
-      <c r="V4" t="n">
-        <v>12.8503983475952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>120</v>
@@ -1208,57 +1088,33 @@
         <v>10313</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00334529091834447</v>
+        <v>5400</v>
       </c>
       <c r="I5" t="n">
-        <v>5400</v>
+        <v>4913</v>
       </c>
       <c r="J5" t="n">
-        <v>0.523610976437506</v>
+        <v>2927</v>
       </c>
       <c r="K5" t="n">
-        <v>4913</v>
+        <v>2526</v>
       </c>
       <c r="L5" t="n">
-        <v>0.476389023562494</v>
+        <v>6768</v>
       </c>
       <c r="M5" t="n">
-        <v>2927</v>
+        <v>3570</v>
       </c>
       <c r="N5" t="n">
-        <v>28.3816542228256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2526</v>
-      </c>
-      <c r="P5" t="n">
-        <v>24.4933578977989</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6768</v>
-      </c>
-      <c r="R5" t="n">
-        <v>65.6259090468341</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3570</v>
-      </c>
-      <c r="T5" t="n">
-        <v>34.6165034422573</v>
-      </c>
-      <c r="U5" t="n">
         <v>1290</v>
-      </c>
-      <c r="V5" t="n">
-        <v>12.5084844371182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>239</v>
@@ -1276,57 +1132,33 @@
         <v>18872</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00612162612343614</v>
+        <v>9764</v>
       </c>
       <c r="I6" t="n">
-        <v>9764</v>
+        <v>9108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.517380245866893</v>
+        <v>4561</v>
       </c>
       <c r="K6" t="n">
-        <v>9108</v>
+        <v>4502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.482619754133107</v>
+        <v>13346</v>
       </c>
       <c r="M6" t="n">
-        <v>4561</v>
+        <v>7160</v>
       </c>
       <c r="N6" t="n">
-        <v>24.1680796947859</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4502</v>
-      </c>
-      <c r="P6" t="n">
-        <v>23.8554472233997</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>13346</v>
-      </c>
-      <c r="R6" t="n">
-        <v>70.7185247986435</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7160</v>
-      </c>
-      <c r="T6" t="n">
-        <v>37.9398050021195</v>
-      </c>
-      <c r="U6" t="n">
         <v>2649</v>
-      </c>
-      <c r="V6" t="n">
-        <v>14.0366680796948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>433.5</v>
@@ -1344,57 +1176,33 @@
         <v>19162</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00621569519803324</v>
+        <v>9964</v>
       </c>
       <c r="I7" t="n">
-        <v>9964</v>
+        <v>9198</v>
       </c>
       <c r="J7" t="n">
-        <v>0.519987475211356</v>
+        <v>5016</v>
       </c>
       <c r="K7" t="n">
-        <v>9198</v>
+        <v>3909</v>
       </c>
       <c r="L7" t="n">
-        <v>0.480012524788644</v>
+        <v>13138</v>
       </c>
       <c r="M7" t="n">
-        <v>5016</v>
+        <v>7157</v>
       </c>
       <c r="N7" t="n">
-        <v>26.1768082663605</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3909</v>
-      </c>
-      <c r="P7" t="n">
-        <v>20.3997495042271</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13138</v>
-      </c>
-      <c r="R7" t="n">
-        <v>68.562780503079</v>
-      </c>
-      <c r="S7" t="n">
-        <v>7157</v>
-      </c>
-      <c r="T7" t="n">
-        <v>37.3499634693665</v>
-      </c>
-      <c r="U7" t="n">
         <v>3079</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.0682600981108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>272.3</v>
@@ -1412,57 +1220,33 @@
         <v>12546</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00406962279274215</v>
+        <v>6476</v>
       </c>
       <c r="I8" t="n">
-        <v>6476</v>
+        <v>6070</v>
       </c>
       <c r="J8" t="n">
-        <v>0.516180455922206</v>
+        <v>3366</v>
       </c>
       <c r="K8" t="n">
-        <v>6070</v>
+        <v>3075</v>
       </c>
       <c r="L8" t="n">
-        <v>0.483819544077794</v>
+        <v>8508</v>
       </c>
       <c r="M8" t="n">
-        <v>3366</v>
+        <v>4527</v>
       </c>
       <c r="N8" t="n">
-        <v>26.8292682926829</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3075</v>
-      </c>
-      <c r="P8" t="n">
-        <v>24.5098039215686</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>8508</v>
-      </c>
-      <c r="R8" t="n">
-        <v>67.8144428503109</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4527</v>
-      </c>
-      <c r="T8" t="n">
-        <v>36.0832137733142</v>
-      </c>
-      <c r="U8" t="n">
         <v>1578</v>
-      </c>
-      <c r="V8" t="n">
-        <v>12.5777140124342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>322.2</v>
@@ -1480,57 +1264,33 @@
         <v>46681</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0151422016250595</v>
+        <v>24393</v>
       </c>
       <c r="I9" t="n">
-        <v>24393</v>
+        <v>22288</v>
       </c>
       <c r="J9" t="n">
-        <v>0.522546646387181</v>
+        <v>11525</v>
       </c>
       <c r="K9" t="n">
-        <v>22288</v>
+        <v>11376</v>
       </c>
       <c r="L9" t="n">
-        <v>0.477453353612819</v>
+        <v>32633</v>
       </c>
       <c r="M9" t="n">
-        <v>11525</v>
+        <v>17532</v>
       </c>
       <c r="N9" t="n">
-        <v>24.688845568861</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11376</v>
-      </c>
-      <c r="P9" t="n">
-        <v>24.3696578907907</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>32633</v>
-      </c>
-      <c r="R9" t="n">
-        <v>69.9063858957606</v>
-      </c>
-      <c r="S9" t="n">
-        <v>17532</v>
-      </c>
-      <c r="T9" t="n">
-        <v>37.5570360532122</v>
-      </c>
-      <c r="U9" t="n">
         <v>6246</v>
-      </c>
-      <c r="V9" t="n">
-        <v>13.3801760887727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
         <v>137.6</v>
@@ -1548,57 +1308,33 @@
         <v>19836</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00643432470244168</v>
+        <v>10261</v>
       </c>
       <c r="I10" t="n">
-        <v>10261</v>
+        <v>9575</v>
       </c>
       <c r="J10" t="n">
-        <v>0.517291792700141</v>
+        <v>5241</v>
       </c>
       <c r="K10" t="n">
-        <v>9575</v>
+        <v>5073</v>
       </c>
       <c r="L10" t="n">
-        <v>0.482708207299859</v>
+        <v>13435</v>
       </c>
       <c r="M10" t="n">
-        <v>5241</v>
+        <v>7212</v>
       </c>
       <c r="N10" t="n">
-        <v>26.4216575922565</v>
-      </c>
-      <c r="O10" t="n">
-        <v>5073</v>
-      </c>
-      <c r="P10" t="n">
-        <v>25.5747126436782</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>13435</v>
-      </c>
-      <c r="R10" t="n">
-        <v>67.7303891913692</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7212</v>
-      </c>
-      <c r="T10" t="n">
-        <v>36.3581367211131</v>
-      </c>
-      <c r="U10" t="n">
         <v>2309</v>
-      </c>
-      <c r="V10" t="n">
-        <v>11.6404517039726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
         <v>62.5</v>
@@ -1616,57 +1352,33 @@
         <v>31525</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0102259571609434</v>
+        <v>16044</v>
       </c>
       <c r="I11" t="n">
-        <v>16044</v>
+        <v>15481</v>
       </c>
       <c r="J11" t="n">
-        <v>0.50892942109437</v>
+        <v>7463</v>
       </c>
       <c r="K11" t="n">
-        <v>15481</v>
+        <v>7563</v>
       </c>
       <c r="L11" t="n">
-        <v>0.49107057890563</v>
+        <v>22407</v>
       </c>
       <c r="M11" t="n">
-        <v>7463</v>
+        <v>12694</v>
       </c>
       <c r="N11" t="n">
-        <v>23.6732751784298</v>
-      </c>
-      <c r="O11" t="n">
-        <v>7563</v>
-      </c>
-      <c r="P11" t="n">
-        <v>23.9904837430611</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>22407</v>
-      </c>
-      <c r="R11" t="n">
-        <v>71.0769230769231</v>
-      </c>
-      <c r="S11" t="n">
-        <v>12694</v>
-      </c>
-      <c r="T11" t="n">
-        <v>40.2664551942902</v>
-      </c>
-      <c r="U11" t="n">
         <v>3805</v>
-      </c>
-      <c r="V11" t="n">
-        <v>12.0697858842189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
         <v>142.6</v>
@@ -1684,57 +1396,33 @@
         <v>19812</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00642653967557847</v>
+        <v>10301</v>
       </c>
       <c r="I12" t="n">
-        <v>10301</v>
+        <v>9511</v>
       </c>
       <c r="J12" t="n">
-        <v>0.519937411669695</v>
+        <v>5235</v>
       </c>
       <c r="K12" t="n">
-        <v>9511</v>
+        <v>4271</v>
       </c>
       <c r="L12" t="n">
-        <v>0.480062588330305</v>
+        <v>13367</v>
       </c>
       <c r="M12" t="n">
-        <v>5235</v>
+        <v>6743</v>
       </c>
       <c r="N12" t="n">
-        <v>26.4233797698365</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4271</v>
-      </c>
-      <c r="P12" t="n">
-        <v>21.5576418332324</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>13367</v>
-      </c>
-      <c r="R12" t="n">
-        <v>67.4692105794468</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6743</v>
-      </c>
-      <c r="T12" t="n">
-        <v>34.0349283262669</v>
-      </c>
-      <c r="U12" t="n">
         <v>3554</v>
-      </c>
-      <c r="V12" t="n">
-        <v>17.9386230567333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
         <v>458.5</v>
@@ -1752,57 +1440,33 @@
         <v>30135</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00977507435511595</v>
+        <v>15874</v>
       </c>
       <c r="I13" t="n">
-        <v>15874</v>
+        <v>14261</v>
       </c>
       <c r="J13" t="n">
-        <v>0.526762900282064</v>
+        <v>8037</v>
       </c>
       <c r="K13" t="n">
-        <v>14261</v>
+        <v>7062</v>
       </c>
       <c r="L13" t="n">
-        <v>0.473237099717936</v>
+        <v>20456</v>
       </c>
       <c r="M13" t="n">
-        <v>8037</v>
+        <v>10968</v>
       </c>
       <c r="N13" t="n">
-        <v>26.6699850671976</v>
-      </c>
-      <c r="O13" t="n">
-        <v>7062</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23.4345445495271</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>20456</v>
-      </c>
-      <c r="R13" t="n">
-        <v>67.8812012609922</v>
-      </c>
-      <c r="S13" t="n">
-        <v>10968</v>
-      </c>
-      <c r="T13" t="n">
-        <v>36.3962170233947</v>
-      </c>
-      <c r="U13" t="n">
         <v>4067</v>
-      </c>
-      <c r="V13" t="n">
-        <v>13.4959349593496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
         <v>122.3</v>
@@ -1820,57 +1484,33 @@
         <v>62470</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0202637761726927</v>
+        <v>32056</v>
       </c>
       <c r="I14" t="n">
-        <v>32056</v>
+        <v>30414</v>
       </c>
       <c r="J14" t="n">
-        <v>0.513142308307988</v>
+        <v>17287</v>
       </c>
       <c r="K14" t="n">
-        <v>30414</v>
+        <v>14812</v>
       </c>
       <c r="L14" t="n">
-        <v>0.486857691692012</v>
+        <v>41688</v>
       </c>
       <c r="M14" t="n">
-        <v>17287</v>
+        <v>25631</v>
       </c>
       <c r="N14" t="n">
-        <v>27.67248279174</v>
-      </c>
-      <c r="O14" t="n">
-        <v>14812</v>
-      </c>
-      <c r="P14" t="n">
-        <v>23.7105810789179</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>41688</v>
-      </c>
-      <c r="R14" t="n">
-        <v>66.7328317592444</v>
-      </c>
-      <c r="S14" t="n">
-        <v>25631</v>
-      </c>
-      <c r="T14" t="n">
-        <v>41.0292940611494</v>
-      </c>
-      <c r="U14" t="n">
         <v>4695</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7.51560749159597</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
         <v>211</v>
@@ -1888,57 +1528,33 @@
         <v>16150</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0052386743267006</v>
+        <v>8406</v>
       </c>
       <c r="I15" t="n">
-        <v>8406</v>
+        <v>7744</v>
       </c>
       <c r="J15" t="n">
-        <v>0.520495356037152</v>
+        <v>4186</v>
       </c>
       <c r="K15" t="n">
-        <v>7744</v>
+        <v>3313</v>
       </c>
       <c r="L15" t="n">
-        <v>0.479504643962848</v>
+        <v>10938</v>
       </c>
       <c r="M15" t="n">
-        <v>4186</v>
+        <v>5426</v>
       </c>
       <c r="N15" t="n">
-        <v>25.9195046439628</v>
-      </c>
-      <c r="O15" t="n">
-        <v>3313</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20.5139318885449</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>10938</v>
-      </c>
-      <c r="R15" t="n">
-        <v>67.7275541795666</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5426</v>
-      </c>
-      <c r="T15" t="n">
-        <v>33.5975232198142</v>
-      </c>
-      <c r="U15" t="n">
         <v>3225</v>
-      </c>
-      <c r="V15" t="n">
-        <v>19.969040247678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
         <v>593.6</v>
@@ -1956,57 +1572,33 @@
         <v>19431</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00630295237412504</v>
+        <v>10123</v>
       </c>
       <c r="I16" t="n">
-        <v>10123</v>
+        <v>9308</v>
       </c>
       <c r="J16" t="n">
-        <v>0.520971643250476</v>
+        <v>5129</v>
       </c>
       <c r="K16" t="n">
-        <v>9308</v>
+        <v>4548</v>
       </c>
       <c r="L16" t="n">
-        <v>0.479028356749524</v>
+        <v>13279</v>
       </c>
       <c r="M16" t="n">
-        <v>5129</v>
+        <v>6965</v>
       </c>
       <c r="N16" t="n">
-        <v>26.3959652102311</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4548</v>
-      </c>
-      <c r="P16" t="n">
-        <v>23.4058977921877</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>13279</v>
-      </c>
-      <c r="R16" t="n">
-        <v>68.3392517111832</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6965</v>
-      </c>
-      <c r="T16" t="n">
-        <v>35.8447841078689</v>
-      </c>
-      <c r="U16" t="n">
         <v>2789</v>
-      </c>
-      <c r="V16" t="n">
-        <v>14.3533528897123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
         <v>391.4</v>
@@ -2024,57 +1616,33 @@
         <v>60421</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0195991295042462</v>
+        <v>31555</v>
       </c>
       <c r="I17" t="n">
-        <v>31555</v>
+        <v>28866</v>
       </c>
       <c r="J17" t="n">
-        <v>0.522252197083795</v>
+        <v>16814</v>
       </c>
       <c r="K17" t="n">
-        <v>28866</v>
+        <v>15091</v>
       </c>
       <c r="L17" t="n">
-        <v>0.477747802916205</v>
+        <v>40182</v>
       </c>
       <c r="M17" t="n">
-        <v>16814</v>
+        <v>21455</v>
       </c>
       <c r="N17" t="n">
-        <v>27.8280730209695</v>
-      </c>
-      <c r="O17" t="n">
-        <v>15091</v>
-      </c>
-      <c r="P17" t="n">
-        <v>24.9764154846825</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>40182</v>
-      </c>
-      <c r="R17" t="n">
-        <v>66.5033680342927</v>
-      </c>
-      <c r="S17" t="n">
-        <v>21455</v>
-      </c>
-      <c r="T17" t="n">
-        <v>35.5091772728025</v>
-      </c>
-      <c r="U17" t="n">
         <v>7038</v>
-      </c>
-      <c r="V17" t="n">
-        <v>11.6482679862962</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>278.3</v>
@@ -2092,57 +1660,33 @@
         <v>12967</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0042061851389676</v>
+        <v>6690</v>
       </c>
       <c r="I18" t="n">
-        <v>6690</v>
+        <v>6277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.515925040487391</v>
+        <v>3328</v>
       </c>
       <c r="K18" t="n">
-        <v>6277</v>
+        <v>2626</v>
       </c>
       <c r="L18" t="n">
-        <v>0.484074959512609</v>
+        <v>9007</v>
       </c>
       <c r="M18" t="n">
-        <v>3328</v>
+        <v>4836</v>
       </c>
       <c r="N18" t="n">
-        <v>25.6651499961441</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2626</v>
-      </c>
-      <c r="P18" t="n">
-        <v>20.2514074188324</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>9007</v>
-      </c>
-      <c r="R18" t="n">
-        <v>69.4609393074728</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4836</v>
-      </c>
-      <c r="T18" t="n">
-        <v>37.2946710881468</v>
-      </c>
-      <c r="U18" t="n">
         <v>2177</v>
-      </c>
-      <c r="V18" t="n">
-        <v>16.7887714968767</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
         <v>231.6</v>
@@ -2160,57 +1704,33 @@
         <v>22903</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00742918626033584</v>
+        <v>11641</v>
       </c>
       <c r="I19" t="n">
-        <v>11641</v>
+        <v>11262</v>
       </c>
       <c r="J19" t="n">
-        <v>0.508274025236868</v>
+        <v>6831</v>
       </c>
       <c r="K19" t="n">
-        <v>11262</v>
+        <v>5566</v>
       </c>
       <c r="L19" t="n">
-        <v>0.491725974763132</v>
+        <v>14775</v>
       </c>
       <c r="M19" t="n">
-        <v>6831</v>
+        <v>7354</v>
       </c>
       <c r="N19" t="n">
-        <v>29.8257870148016</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5566</v>
-      </c>
-      <c r="P19" t="n">
-        <v>24.3024931231716</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>14775</v>
-      </c>
-      <c r="R19" t="n">
-        <v>64.5111994061913</v>
-      </c>
-      <c r="S19" t="n">
-        <v>7354</v>
-      </c>
-      <c r="T19" t="n">
-        <v>32.1093306553727</v>
-      </c>
-      <c r="U19" t="n">
         <v>3152</v>
-      </c>
-      <c r="V19" t="n">
-        <v>13.7623892066542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
         <v>222.8</v>
@@ -2228,57 +1748,33 @@
         <v>18909</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00613362803985026</v>
+        <v>9719</v>
       </c>
       <c r="I20" t="n">
-        <v>9719</v>
+        <v>9190</v>
       </c>
       <c r="J20" t="n">
-        <v>0.513988048019462</v>
+        <v>4988</v>
       </c>
       <c r="K20" t="n">
-        <v>9190</v>
+        <v>4556</v>
       </c>
       <c r="L20" t="n">
-        <v>0.486011951980538</v>
+        <v>12879</v>
       </c>
       <c r="M20" t="n">
-        <v>4988</v>
+        <v>6861</v>
       </c>
       <c r="N20" t="n">
-        <v>26.3789729758316</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4556</v>
-      </c>
-      <c r="P20" t="n">
-        <v>24.0943466074356</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>12879</v>
-      </c>
-      <c r="R20" t="n">
-        <v>68.1104236078058</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6861</v>
-      </c>
-      <c r="T20" t="n">
-        <v>36.2843090591782</v>
-      </c>
-      <c r="U20" t="n">
         <v>2504</v>
-      </c>
-      <c r="V20" t="n">
-        <v>13.2423713575546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>239.5</v>
@@ -2296,57 +1792,33 @@
         <v>2593</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000841107277345799</v>
+        <v>1354</v>
       </c>
       <c r="I21" t="n">
-        <v>1354</v>
+        <v>1239</v>
       </c>
       <c r="J21" t="n">
-        <v>0.522175086772079</v>
+        <v>578</v>
       </c>
       <c r="K21" t="n">
-        <v>1239</v>
+        <v>423</v>
       </c>
       <c r="L21" t="n">
-        <v>0.477824913227921</v>
+        <v>1911</v>
       </c>
       <c r="M21" t="n">
-        <v>578</v>
+        <v>939</v>
       </c>
       <c r="N21" t="n">
-        <v>22.2907828769765</v>
-      </c>
-      <c r="O21" t="n">
-        <v>423</v>
-      </c>
-      <c r="P21" t="n">
-        <v>16.3131507905901</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1911</v>
-      </c>
-      <c r="R21" t="n">
-        <v>73.6984188198997</v>
-      </c>
-      <c r="S21" t="n">
-        <v>939</v>
-      </c>
-      <c r="T21" t="n">
-        <v>36.212880833012</v>
-      </c>
-      <c r="U21" t="n">
         <v>653</v>
-      </c>
-      <c r="V21" t="n">
-        <v>25.1831854994215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C22" t="n">
         <v>123</v>
@@ -2364,57 +1836,33 @@
         <v>15175</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00492240761038276</v>
+        <v>7837</v>
       </c>
       <c r="I22" t="n">
-        <v>7837</v>
+        <v>7338</v>
       </c>
       <c r="J22" t="n">
-        <v>0.516441515650741</v>
+        <v>3752</v>
       </c>
       <c r="K22" t="n">
-        <v>7338</v>
+        <v>3595</v>
       </c>
       <c r="L22" t="n">
-        <v>0.483558484349259</v>
+        <v>10610</v>
       </c>
       <c r="M22" t="n">
-        <v>3752</v>
+        <v>5740</v>
       </c>
       <c r="N22" t="n">
-        <v>24.7248764415157</v>
-      </c>
-      <c r="O22" t="n">
-        <v>3595</v>
-      </c>
-      <c r="P22" t="n">
-        <v>23.6902800658979</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>10610</v>
-      </c>
-      <c r="R22" t="n">
-        <v>69.9176276771005</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5740</v>
-      </c>
-      <c r="T22" t="n">
-        <v>37.825370675453</v>
-      </c>
-      <c r="U22" t="n">
         <v>2087</v>
-      </c>
-      <c r="V22" t="n">
-        <v>13.7528830313015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
         <v>142.3</v>
@@ -2432,57 +1880,33 @@
         <v>16285</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00528246510280615</v>
+        <v>8406</v>
       </c>
       <c r="I23" t="n">
-        <v>8406</v>
+        <v>7879</v>
       </c>
       <c r="J23" t="n">
-        <v>0.516180534233958</v>
+        <v>3869</v>
       </c>
       <c r="K23" t="n">
-        <v>7879</v>
+        <v>3856</v>
       </c>
       <c r="L23" t="n">
-        <v>0.483819465766042</v>
+        <v>11483</v>
       </c>
       <c r="M23" t="n">
-        <v>3869</v>
+        <v>6427</v>
       </c>
       <c r="N23" t="n">
-        <v>23.758059564016</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3856</v>
-      </c>
-      <c r="P23" t="n">
-        <v>23.6782315013816</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>11483</v>
-      </c>
-      <c r="R23" t="n">
-        <v>70.5127417869205</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6427</v>
-      </c>
-      <c r="T23" t="n">
-        <v>39.4657660423703</v>
-      </c>
-      <c r="U23" t="n">
         <v>2128</v>
-      </c>
-      <c r="V23" t="n">
-        <v>13.0672397912189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C24" t="n">
         <v>98</v>
@@ -2500,57 +1924,33 @@
         <v>36248</v>
       </c>
       <c r="H24" t="n">
-        <v>0.011757985572399</v>
+        <v>18952</v>
       </c>
       <c r="I24" t="n">
-        <v>18952</v>
+        <v>17296</v>
       </c>
       <c r="J24" t="n">
-        <v>0.522842639593909</v>
+        <v>8654</v>
       </c>
       <c r="K24" t="n">
-        <v>17296</v>
+        <v>8814</v>
       </c>
       <c r="L24" t="n">
-        <v>0.477157360406091</v>
+        <v>25728</v>
       </c>
       <c r="M24" t="n">
-        <v>8654</v>
+        <v>13811</v>
       </c>
       <c r="N24" t="n">
-        <v>23.8744206576915</v>
-      </c>
-      <c r="O24" t="n">
-        <v>8814</v>
-      </c>
-      <c r="P24" t="n">
-        <v>24.3158243213419</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>25728</v>
-      </c>
-      <c r="R24" t="n">
-        <v>70.9777091149857</v>
-      </c>
-      <c r="S24" t="n">
-        <v>13811</v>
-      </c>
-      <c r="T24" t="n">
-        <v>38.1014124917237</v>
-      </c>
-      <c r="U24" t="n">
         <v>4966</v>
-      </c>
-      <c r="V24" t="n">
-        <v>13.7000662105495</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C25" t="n">
         <v>302.8</v>
@@ -2568,57 +1968,33 @@
         <v>17607</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0057112903325212</v>
+        <v>9288</v>
       </c>
       <c r="I25" t="n">
-        <v>9288</v>
+        <v>8319</v>
       </c>
       <c r="J25" t="n">
-        <v>0.527517464644744</v>
+        <v>5119</v>
       </c>
       <c r="K25" t="n">
-        <v>8319</v>
+        <v>4011</v>
       </c>
       <c r="L25" t="n">
-        <v>0.472482535355256</v>
+        <v>11555</v>
       </c>
       <c r="M25" t="n">
-        <v>5119</v>
+        <v>6206</v>
       </c>
       <c r="N25" t="n">
-        <v>29.0736638836826</v>
-      </c>
-      <c r="O25" t="n">
-        <v>4011</v>
-      </c>
-      <c r="P25" t="n">
-        <v>22.780712216732</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>11555</v>
-      </c>
-      <c r="R25" t="n">
-        <v>65.6273073209519</v>
-      </c>
-      <c r="S25" t="n">
-        <v>6206</v>
-      </c>
-      <c r="T25" t="n">
-        <v>35.2473448060431</v>
-      </c>
-      <c r="U25" t="n">
         <v>2271</v>
-      </c>
-      <c r="V25" t="n">
-        <v>12.8982790935423</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C26" t="n">
         <v>292.306140741408</v>
@@ -2636,57 +2012,33 @@
         <v>20673</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00670582751429607</v>
+        <v>10812</v>
       </c>
       <c r="I26" t="n">
-        <v>10812</v>
+        <v>9861</v>
       </c>
       <c r="J26" t="n">
-        <v>0.523001015817733</v>
+        <v>5248</v>
       </c>
       <c r="K26" t="n">
-        <v>9861</v>
+        <v>3732</v>
       </c>
       <c r="L26" t="n">
-        <v>0.476998984182267</v>
+        <v>14229</v>
       </c>
       <c r="M26" t="n">
-        <v>5248</v>
+        <v>7022</v>
       </c>
       <c r="N26" t="n">
-        <v>25.3857688772795</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3732</v>
-      </c>
-      <c r="P26" t="n">
-        <v>18.0525322884922</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>14229</v>
-      </c>
-      <c r="R26" t="n">
-        <v>68.8289072703526</v>
-      </c>
-      <c r="S26" t="n">
-        <v>7022</v>
-      </c>
-      <c r="T26" t="n">
-        <v>33.9670101098051</v>
-      </c>
-      <c r="U26" t="n">
         <v>4671</v>
-      </c>
-      <c r="V26" t="n">
-        <v>22.5946887244232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C27" t="n">
         <v>107.5</v>
@@ -2704,57 +2056,33 @@
         <v>12766</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00414098553898823</v>
+        <v>6571</v>
       </c>
       <c r="I27" t="n">
-        <v>6571</v>
+        <v>6195</v>
       </c>
       <c r="J27" t="n">
-        <v>0.514726617577941</v>
+        <v>3786</v>
       </c>
       <c r="K27" t="n">
-        <v>6195</v>
+        <v>3006</v>
       </c>
       <c r="L27" t="n">
-        <v>0.485273382422059</v>
+        <v>8115</v>
       </c>
       <c r="M27" t="n">
-        <v>3786</v>
+        <v>4120</v>
       </c>
       <c r="N27" t="n">
-        <v>29.6569011436629</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3006</v>
-      </c>
-      <c r="P27" t="n">
-        <v>23.5469215102616</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>8115</v>
-      </c>
-      <c r="R27" t="n">
-        <v>63.5672881090396</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4120</v>
-      </c>
-      <c r="T27" t="n">
-        <v>32.2732257559141</v>
-      </c>
-      <c r="U27" t="n">
         <v>1854</v>
-      </c>
-      <c r="V27" t="n">
-        <v>14.5229515901614</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
         <v>213.9</v>
@@ -2772,57 +2100,33 @@
         <v>22846</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00741069682153572</v>
+        <v>11830</v>
       </c>
       <c r="I28" t="n">
-        <v>11830</v>
+        <v>11016</v>
       </c>
       <c r="J28" t="n">
-        <v>0.517814934780706</v>
+        <v>6528</v>
       </c>
       <c r="K28" t="n">
-        <v>11016</v>
+        <v>5164</v>
       </c>
       <c r="L28" t="n">
-        <v>0.482185065219294</v>
+        <v>14861</v>
       </c>
       <c r="M28" t="n">
-        <v>6528</v>
+        <v>7576</v>
       </c>
       <c r="N28" t="n">
-        <v>28.573929790773</v>
-      </c>
-      <c r="O28" t="n">
-        <v>5164</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.6035192156176</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>14861</v>
-      </c>
-      <c r="R28" t="n">
-        <v>65.0485861857656</v>
-      </c>
-      <c r="S28" t="n">
-        <v>7576</v>
-      </c>
-      <c r="T28" t="n">
-        <v>33.1611660684584</v>
-      </c>
-      <c r="U28" t="n">
         <v>3578</v>
-      </c>
-      <c r="V28" t="n">
-        <v>15.661384925151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C29" t="n">
         <v>394</v>
@@ -2840,57 +2144,33 @@
         <v>126781</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0411247287810173</v>
+        <v>65460</v>
       </c>
       <c r="I29" t="n">
-        <v>65460</v>
+        <v>61321</v>
       </c>
       <c r="J29" t="n">
-        <v>0.516323423856887</v>
+        <v>37625</v>
       </c>
       <c r="K29" t="n">
-        <v>61321</v>
+        <v>28839</v>
       </c>
       <c r="L29" t="n">
-        <v>0.483676576143113</v>
+        <v>81829</v>
       </c>
       <c r="M29" t="n">
-        <v>37625</v>
+        <v>44146</v>
       </c>
       <c r="N29" t="n">
-        <v>29.6771598267879</v>
-      </c>
-      <c r="O29" t="n">
-        <v>28839</v>
-      </c>
-      <c r="P29" t="n">
-        <v>22.7470993287638</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>81829</v>
-      </c>
-      <c r="R29" t="n">
-        <v>64.5435830290028</v>
-      </c>
-      <c r="S29" t="n">
-        <v>44146</v>
-      </c>
-      <c r="T29" t="n">
-        <v>34.8206750222825</v>
-      </c>
-      <c r="U29" t="n">
         <v>16169</v>
-      </c>
-      <c r="V29" t="n">
-        <v>12.7534882987198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C30" t="n">
         <v>660.7</v>
@@ -2908,57 +2188,33 @@
         <v>47425</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0153835374578189</v>
+        <v>24645</v>
       </c>
       <c r="I30" t="n">
-        <v>24645</v>
+        <v>22780</v>
       </c>
       <c r="J30" t="n">
-        <v>0.519662625197681</v>
+        <v>12082</v>
       </c>
       <c r="K30" t="n">
-        <v>22780</v>
+        <v>10885</v>
       </c>
       <c r="L30" t="n">
-        <v>0.480337374802319</v>
+        <v>32792</v>
       </c>
       <c r="M30" t="n">
-        <v>12082</v>
+        <v>17844</v>
       </c>
       <c r="N30" t="n">
-        <v>25.4760147601476</v>
-      </c>
-      <c r="O30" t="n">
-        <v>10885</v>
-      </c>
-      <c r="P30" t="n">
-        <v>22.9520295202952</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>32792</v>
-      </c>
-      <c r="R30" t="n">
-        <v>69.1449657353716</v>
-      </c>
-      <c r="S30" t="n">
-        <v>17844</v>
-      </c>
-      <c r="T30" t="n">
-        <v>37.6257248286769</v>
-      </c>
-      <c r="U30" t="n">
         <v>6597</v>
-      </c>
-      <c r="V30" t="n">
-        <v>13.9103848181339</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C31" t="n">
         <v>486.6</v>
@@ -2976,57 +2232,33 @@
         <v>98654</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0320010016734564</v>
+        <v>52214</v>
       </c>
       <c r="I31" t="n">
-        <v>52214</v>
+        <v>46440</v>
       </c>
       <c r="J31" t="n">
-        <v>0.529263891986133</v>
+        <v>26528</v>
       </c>
       <c r="K31" t="n">
-        <v>46440</v>
+        <v>24155</v>
       </c>
       <c r="L31" t="n">
-        <v>0.470736108013867</v>
+        <v>66974</v>
       </c>
       <c r="M31" t="n">
-        <v>26528</v>
+        <v>36744</v>
       </c>
       <c r="N31" t="n">
-        <v>26.8899385731952</v>
-      </c>
-      <c r="O31" t="n">
-        <v>24155</v>
-      </c>
-      <c r="P31" t="n">
-        <v>24.4845622073104</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>66974</v>
-      </c>
-      <c r="R31" t="n">
-        <v>67.8877693757982</v>
-      </c>
-      <c r="S31" t="n">
-        <v>36744</v>
-      </c>
-      <c r="T31" t="n">
-        <v>37.2453220345855</v>
-      </c>
-      <c r="U31" t="n">
         <v>11218</v>
-      </c>
-      <c r="V31" t="n">
-        <v>11.3710543921179</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C32" t="n">
         <v>441</v>
@@ -3044,57 +2276,33 @@
         <v>12290</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00398658250620126</v>
+        <v>6430</v>
       </c>
       <c r="I32" t="n">
-        <v>6430</v>
+        <v>5860</v>
       </c>
       <c r="J32" t="n">
-        <v>0.523189585028478</v>
+        <v>3026</v>
       </c>
       <c r="K32" t="n">
-        <v>5860</v>
+        <v>2640</v>
       </c>
       <c r="L32" t="n">
-        <v>0.476810414971521</v>
+        <v>8671</v>
       </c>
       <c r="M32" t="n">
-        <v>3026</v>
+        <v>4451</v>
       </c>
       <c r="N32" t="n">
-        <v>24.6216436126932</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2640</v>
-      </c>
-      <c r="P32" t="n">
-        <v>21.4808787632221</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>8671</v>
-      </c>
-      <c r="R32" t="n">
-        <v>70.553295362083</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4451</v>
-      </c>
-      <c r="T32" t="n">
-        <v>36.2164361269325</v>
-      </c>
-      <c r="U32" t="n">
         <v>2173</v>
-      </c>
-      <c r="V32" t="n">
-        <v>17.6810414971522</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C33" t="n">
         <v>38.3779353829223</v>
@@ -3112,57 +2320,33 @@
         <v>10523</v>
       </c>
       <c r="H33" t="n">
-        <v>0.00341340990339755</v>
+        <v>5385</v>
       </c>
       <c r="I33" t="n">
-        <v>5385</v>
+        <v>5138</v>
       </c>
       <c r="J33" t="n">
-        <v>0.511736196902024</v>
+        <v>2856</v>
       </c>
       <c r="K33" t="n">
-        <v>5138</v>
+        <v>2179</v>
       </c>
       <c r="L33" t="n">
-        <v>0.488263803097976</v>
+        <v>7063</v>
       </c>
       <c r="M33" t="n">
-        <v>2856</v>
+        <v>3770</v>
       </c>
       <c r="N33" t="n">
-        <v>27.140549273021</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2179</v>
-      </c>
-      <c r="P33" t="n">
-        <v>20.7070227121543</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>7063</v>
-      </c>
-      <c r="R33" t="n">
-        <v>67.1196426874465</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3770</v>
-      </c>
-      <c r="T33" t="n">
-        <v>35.8262852798632</v>
-      </c>
-      <c r="U33" t="n">
         <v>1713</v>
-      </c>
-      <c r="V33" t="n">
-        <v>16.2786277677468</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C34" t="n">
         <v>110.8</v>
@@ -3180,57 +2364,33 @@
         <v>2895</v>
       </c>
       <c r="H34" t="n">
-        <v>0.000939068865374504</v>
+        <v>1525</v>
       </c>
       <c r="I34" t="n">
-        <v>1525</v>
+        <v>1370</v>
       </c>
       <c r="J34" t="n">
-        <v>0.526770293609672</v>
+        <v>701</v>
       </c>
       <c r="K34" t="n">
-        <v>1370</v>
+        <v>534</v>
       </c>
       <c r="L34" t="n">
-        <v>0.473229706390328</v>
+        <v>2033</v>
       </c>
       <c r="M34" t="n">
-        <v>701</v>
+        <v>1076</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2141623488774</v>
-      </c>
-      <c r="O34" t="n">
-        <v>534</v>
-      </c>
-      <c r="P34" t="n">
-        <v>18.4455958549223</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2033</v>
-      </c>
-      <c r="R34" t="n">
-        <v>70.2245250431779</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1076</v>
-      </c>
-      <c r="T34" t="n">
-        <v>37.167530224525</v>
-      </c>
-      <c r="U34" t="n">
         <v>584</v>
-      </c>
-      <c r="V34" t="n">
-        <v>20.1727115716753</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C35" t="n">
         <v>177.2</v>
@@ -3248,57 +2408,33 @@
         <v>9474</v>
       </c>
       <c r="H35" t="n">
-        <v>0.00307313935425148</v>
+        <v>4897</v>
       </c>
       <c r="I35" t="n">
-        <v>4897</v>
+        <v>4577</v>
       </c>
       <c r="J35" t="n">
-        <v>0.516888325944691</v>
+        <v>2741</v>
       </c>
       <c r="K35" t="n">
-        <v>4577</v>
+        <v>2001</v>
       </c>
       <c r="L35" t="n">
-        <v>0.483111674055309</v>
+        <v>6179</v>
       </c>
       <c r="M35" t="n">
-        <v>2741</v>
+        <v>3115</v>
       </c>
       <c r="N35" t="n">
-        <v>28.9318133839983</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2001</v>
-      </c>
-      <c r="P35" t="n">
-        <v>21.1209626345788</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>6179</v>
-      </c>
-      <c r="R35" t="n">
-        <v>65.2206037576525</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3115</v>
-      </c>
-      <c r="T35" t="n">
-        <v>32.8794595735698</v>
-      </c>
-      <c r="U35" t="n">
         <v>1617</v>
-      </c>
-      <c r="V35" t="n">
-        <v>17.0677644078531</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C36" t="n">
         <v>146.3</v>
@@ -3316,57 +2452,33 @@
         <v>13078</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00424219088820993</v>
+        <v>6893</v>
       </c>
       <c r="I36" t="n">
-        <v>6893</v>
+        <v>6185</v>
       </c>
       <c r="J36" t="n">
-        <v>0.527068359076311</v>
+        <v>3843</v>
       </c>
       <c r="K36" t="n">
-        <v>6185</v>
+        <v>3191</v>
       </c>
       <c r="L36" t="n">
-        <v>0.472931640923689</v>
+        <v>8489</v>
       </c>
       <c r="M36" t="n">
-        <v>3843</v>
+        <v>4589</v>
       </c>
       <c r="N36" t="n">
-        <v>29.3852270989448</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3191</v>
-      </c>
-      <c r="P36" t="n">
-        <v>24.3997553142682</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>8489</v>
-      </c>
-      <c r="R36" t="n">
-        <v>64.9105367793241</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4589</v>
-      </c>
-      <c r="T36" t="n">
-        <v>35.0894632206759</v>
-      </c>
-      <c r="U36" t="n">
         <v>1455</v>
-      </c>
-      <c r="V36" t="n">
-        <v>11.125554366111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C37" t="n">
         <v>245.7</v>
@@ -3384,57 +2496,33 @@
         <v>9449</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00306502995126898</v>
+        <v>4867</v>
       </c>
       <c r="I37" t="n">
-        <v>4867</v>
+        <v>4582</v>
       </c>
       <c r="J37" t="n">
-        <v>0.515080960948249</v>
+        <v>2140</v>
       </c>
       <c r="K37" t="n">
-        <v>4582</v>
+        <v>2039</v>
       </c>
       <c r="L37" t="n">
-        <v>0.484919039051751</v>
+        <v>6789</v>
       </c>
       <c r="M37" t="n">
-        <v>2140</v>
+        <v>3595</v>
       </c>
       <c r="N37" t="n">
-        <v>22.6478992485977</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2039</v>
-      </c>
-      <c r="P37" t="n">
-        <v>21.5790030691078</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>6789</v>
-      </c>
-      <c r="R37" t="n">
-        <v>71.8488728966028</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3595</v>
-      </c>
-      <c r="T37" t="n">
-        <v>38.0463541115462</v>
-      </c>
-      <c r="U37" t="n">
         <v>1675</v>
-      </c>
-      <c r="V37" t="n">
-        <v>17.7267435707482</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C38" t="n">
         <v>796.9</v>
@@ -3452,57 +2540,33 @@
         <v>20962</v>
       </c>
       <c r="H38" t="n">
-        <v>0.00679957221277387</v>
+        <v>10888</v>
       </c>
       <c r="I38" t="n">
-        <v>10888</v>
+        <v>10074</v>
       </c>
       <c r="J38" t="n">
-        <v>0.519416086251312</v>
+        <v>5074</v>
       </c>
       <c r="K38" t="n">
-        <v>10074</v>
+        <v>4453</v>
       </c>
       <c r="L38" t="n">
-        <v>0.480583913748688</v>
+        <v>14819</v>
       </c>
       <c r="M38" t="n">
-        <v>5074</v>
+        <v>7844</v>
       </c>
       <c r="N38" t="n">
-        <v>24.2057055624463</v>
-      </c>
-      <c r="O38" t="n">
-        <v>4453</v>
-      </c>
-      <c r="P38" t="n">
-        <v>21.2432019845435</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>14819</v>
-      </c>
-      <c r="R38" t="n">
-        <v>70.6945902108577</v>
-      </c>
-      <c r="S38" t="n">
-        <v>7844</v>
-      </c>
-      <c r="T38" t="n">
-        <v>37.4200935025284</v>
-      </c>
-      <c r="U38" t="n">
         <v>3591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>17.1309989504818</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C39" t="n">
         <v>192.1</v>
@@ -3520,57 +2584,33 @@
         <v>8878</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00287981118714848</v>
+        <v>4577</v>
       </c>
       <c r="I39" t="n">
-        <v>4577</v>
+        <v>4301</v>
       </c>
       <c r="J39" t="n">
-        <v>0.515544041450777</v>
+        <v>2416</v>
       </c>
       <c r="K39" t="n">
-        <v>4301</v>
+        <v>2126</v>
       </c>
       <c r="L39" t="n">
-        <v>0.484455958549223</v>
+        <v>5983</v>
       </c>
       <c r="M39" t="n">
-        <v>2416</v>
+        <v>3242</v>
       </c>
       <c r="N39" t="n">
-        <v>27.2133363370128</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2126</v>
-      </c>
-      <c r="P39" t="n">
-        <v>23.9468348727191</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5983</v>
-      </c>
-      <c r="R39" t="n">
-        <v>67.3913043478261</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3242</v>
-      </c>
-      <c r="T39" t="n">
-        <v>36.5172336111737</v>
-      </c>
-      <c r="U39" t="n">
         <v>1091</v>
-      </c>
-      <c r="V39" t="n">
-        <v>12.2888037846362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C40" t="n">
         <v>53.4</v>
@@ -3588,57 +2628,33 @@
         <v>14324</v>
       </c>
       <c r="H40" t="n">
-        <v>0.00464636353285817</v>
+        <v>7507</v>
       </c>
       <c r="I40" t="n">
-        <v>7507</v>
+        <v>6817</v>
       </c>
       <c r="J40" t="n">
-        <v>0.524085450991343</v>
+        <v>3288</v>
       </c>
       <c r="K40" t="n">
-        <v>6817</v>
+        <v>3494</v>
       </c>
       <c r="L40" t="n">
-        <v>0.475914549008657</v>
+        <v>10304</v>
       </c>
       <c r="M40" t="n">
-        <v>3288</v>
+        <v>5623</v>
       </c>
       <c r="N40" t="n">
-        <v>22.9544819882714</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3494</v>
-      </c>
-      <c r="P40" t="n">
-        <v>24.3926277576096</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>10304</v>
-      </c>
-      <c r="R40" t="n">
-        <v>71.9352136274784</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5623</v>
-      </c>
-      <c r="T40" t="n">
-        <v>39.2557944708182</v>
-      </c>
-      <c r="U40" t="n">
         <v>1914</v>
-      </c>
-      <c r="V40" t="n">
-        <v>13.3621893325887</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C41" t="n">
         <v>232.8</v>
@@ -3656,57 +2672,33 @@
         <v>9819</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0031850491154101</v>
+        <v>5062</v>
       </c>
       <c r="I41" t="n">
-        <v>5062</v>
+        <v>4757</v>
       </c>
       <c r="J41" t="n">
-        <v>0.515531113147978</v>
+        <v>2599</v>
       </c>
       <c r="K41" t="n">
-        <v>4757</v>
+        <v>2146</v>
       </c>
       <c r="L41" t="n">
-        <v>0.484468886852022</v>
+        <v>6697</v>
       </c>
       <c r="M41" t="n">
-        <v>2599</v>
+        <v>3272</v>
       </c>
       <c r="N41" t="n">
-        <v>26.4690905387514</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2146</v>
-      </c>
-      <c r="P41" t="n">
-        <v>21.855586108565</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>6697</v>
-      </c>
-      <c r="R41" t="n">
-        <v>68.2045014767288</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3272</v>
-      </c>
-      <c r="T41" t="n">
-        <v>33.3231489968429</v>
-      </c>
-      <c r="U41" t="n">
         <v>1802</v>
-      </c>
-      <c r="V41" t="n">
-        <v>18.3521743558407</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C42" t="n">
         <v>135.9</v>
@@ -3724,57 +2716,33 @@
         <v>47222</v>
       </c>
       <c r="H42" t="n">
-        <v>0.015317689105601</v>
+        <v>24597</v>
       </c>
       <c r="I42" t="n">
-        <v>24597</v>
+        <v>22625</v>
       </c>
       <c r="J42" t="n">
-        <v>0.520880098259286</v>
+        <v>11520</v>
       </c>
       <c r="K42" t="n">
-        <v>22625</v>
+        <v>11306</v>
       </c>
       <c r="L42" t="n">
-        <v>0.479119901740714</v>
+        <v>33241</v>
       </c>
       <c r="M42" t="n">
-        <v>11520</v>
+        <v>18595</v>
       </c>
       <c r="N42" t="n">
-        <v>24.3954089195714</v>
-      </c>
-      <c r="O42" t="n">
-        <v>11306</v>
-      </c>
-      <c r="P42" t="n">
-        <v>23.942230316378</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>33241</v>
-      </c>
-      <c r="R42" t="n">
-        <v>70.3930371437042</v>
-      </c>
-      <c r="S42" t="n">
-        <v>18595</v>
-      </c>
-      <c r="T42" t="n">
-        <v>39.37783236627</v>
-      </c>
-      <c r="U42" t="n">
         <v>5783</v>
-      </c>
-      <c r="V42" t="n">
-        <v>12.2464105713439</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C43" t="n">
         <v>198.3</v>
@@ -3792,57 +2760,33 @@
         <v>11578</v>
       </c>
       <c r="H43" t="n">
-        <v>0.00375562670925941</v>
+        <v>5893</v>
       </c>
       <c r="I43" t="n">
-        <v>5893</v>
+        <v>5685</v>
       </c>
       <c r="J43" t="n">
-        <v>0.508982553117982</v>
+        <v>3059</v>
       </c>
       <c r="K43" t="n">
-        <v>5685</v>
+        <v>2513</v>
       </c>
       <c r="L43" t="n">
-        <v>0.491017446882018</v>
+        <v>7831</v>
       </c>
       <c r="M43" t="n">
-        <v>3059</v>
+        <v>4008</v>
       </c>
       <c r="N43" t="n">
-        <v>26.4207980652962</v>
-      </c>
-      <c r="O43" t="n">
-        <v>2513</v>
-      </c>
-      <c r="P43" t="n">
-        <v>21.7049576783555</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>7831</v>
-      </c>
-      <c r="R43" t="n">
-        <v>67.6368975643462</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4008</v>
-      </c>
-      <c r="T43" t="n">
-        <v>34.6173777854552</v>
-      </c>
-      <c r="U43" t="n">
         <v>1998</v>
-      </c>
-      <c r="V43" t="n">
-        <v>17.2568664708931</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C44" t="n">
         <v>249.7</v>
@@ -3860,57 +2804,33 @@
         <v>6265</v>
       </c>
       <c r="H44" t="n">
-        <v>0.00203221638741667</v>
+        <v>3229</v>
       </c>
       <c r="I44" t="n">
-        <v>3229</v>
+        <v>3036</v>
       </c>
       <c r="J44" t="n">
-        <v>0.515403032721468</v>
+        <v>1751</v>
       </c>
       <c r="K44" t="n">
-        <v>3036</v>
+        <v>1407</v>
       </c>
       <c r="L44" t="n">
-        <v>0.484596967278532</v>
+        <v>4144</v>
       </c>
       <c r="M44" t="n">
-        <v>1751</v>
+        <v>2047</v>
       </c>
       <c r="N44" t="n">
-        <v>27.9489225857941</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1407</v>
-      </c>
-      <c r="P44" t="n">
-        <v>22.4581005586592</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4144</v>
-      </c>
-      <c r="R44" t="n">
-        <v>66.145251396648</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2047</v>
-      </c>
-      <c r="T44" t="n">
-        <v>32.6735833998404</v>
-      </c>
-      <c r="U44" t="n">
         <v>1060</v>
-      </c>
-      <c r="V44" t="n">
-        <v>16.9193934557063</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C45" t="n">
         <v>341.3</v>
@@ -3928,57 +2848,33 @@
         <v>16948</v>
       </c>
       <c r="H45" t="n">
-        <v>0.00549752646990228</v>
+        <v>8711</v>
       </c>
       <c r="I45" t="n">
-        <v>8711</v>
+        <v>8237</v>
       </c>
       <c r="J45" t="n">
-        <v>0.513983950908662</v>
+        <v>4068</v>
       </c>
       <c r="K45" t="n">
-        <v>8237</v>
+        <v>3615</v>
       </c>
       <c r="L45" t="n">
-        <v>0.486016049091338</v>
+        <v>12028</v>
       </c>
       <c r="M45" t="n">
-        <v>4068</v>
+        <v>6199</v>
       </c>
       <c r="N45" t="n">
-        <v>24.0028321925891</v>
-      </c>
-      <c r="O45" t="n">
-        <v>3615</v>
-      </c>
-      <c r="P45" t="n">
-        <v>21.3299504366297</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>12028</v>
-      </c>
-      <c r="R45" t="n">
-        <v>70.9700259617654</v>
-      </c>
-      <c r="S45" t="n">
-        <v>6199</v>
-      </c>
-      <c r="T45" t="n">
-        <v>36.5765872079301</v>
-      </c>
-      <c r="U45" t="n">
         <v>3064</v>
-      </c>
-      <c r="V45" t="n">
-        <v>18.0788293603965</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C46" t="n">
         <v>79.7</v>
@@ -3996,57 +2892,33 @@
         <v>9295</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00301507602889672</v>
+        <v>4873</v>
       </c>
       <c r="I46" t="n">
-        <v>4873</v>
+        <v>4422</v>
       </c>
       <c r="J46" t="n">
-        <v>0.524260355029586</v>
+        <v>2481</v>
       </c>
       <c r="K46" t="n">
-        <v>4422</v>
+        <v>2219</v>
       </c>
       <c r="L46" t="n">
-        <v>0.475739644970414</v>
+        <v>6295</v>
       </c>
       <c r="M46" t="n">
-        <v>2481</v>
+        <v>3411</v>
       </c>
       <c r="N46" t="n">
-        <v>26.6917697686928</v>
-      </c>
-      <c r="O46" t="n">
-        <v>2219</v>
-      </c>
-      <c r="P46" t="n">
-        <v>23.8730500268962</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>6295</v>
-      </c>
-      <c r="R46" t="n">
-        <v>67.7245831091985</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3411</v>
-      </c>
-      <c r="T46" t="n">
-        <v>36.6971490048413</v>
-      </c>
-      <c r="U46" t="n">
         <v>1184</v>
-      </c>
-      <c r="V46" t="n">
-        <v>12.7380311995697</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C47" t="n">
         <v>324</v>
@@ -4064,57 +2936,33 @@
         <v>38492</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0124858855841089</v>
+        <v>19764</v>
       </c>
       <c r="I47" t="n">
-        <v>19764</v>
+        <v>18728</v>
       </c>
       <c r="J47" t="n">
-        <v>0.513457341785306</v>
+        <v>11269</v>
       </c>
       <c r="K47" t="n">
-        <v>18728</v>
+        <v>7636</v>
       </c>
       <c r="L47" t="n">
-        <v>0.486542658214694</v>
+        <v>24958</v>
       </c>
       <c r="M47" t="n">
-        <v>11269</v>
+        <v>13445</v>
       </c>
       <c r="N47" t="n">
-        <v>29.2762132391146</v>
-      </c>
-      <c r="O47" t="n">
-        <v>7636</v>
-      </c>
-      <c r="P47" t="n">
-        <v>19.8378883923932</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>24958</v>
-      </c>
-      <c r="R47" t="n">
-        <v>64.839447157851</v>
-      </c>
-      <c r="S47" t="n">
-        <v>13445</v>
-      </c>
-      <c r="T47" t="n">
-        <v>34.929335965915</v>
-      </c>
-      <c r="U47" t="n">
         <v>6142</v>
-      </c>
-      <c r="V47" t="n">
-        <v>15.9565624025772</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C48" t="n">
         <v>385.4</v>
@@ -4132,57 +2980,33 @@
         <v>4748</v>
       </c>
       <c r="H48" t="n">
-        <v>0.00154013781443805</v>
+        <v>2518</v>
       </c>
       <c r="I48" t="n">
-        <v>2518</v>
+        <v>2230</v>
       </c>
       <c r="J48" t="n">
-        <v>0.530328559393429</v>
+        <v>1236</v>
       </c>
       <c r="K48" t="n">
-        <v>2230</v>
+        <v>1014</v>
       </c>
       <c r="L48" t="n">
-        <v>0.469671440606571</v>
+        <v>3291</v>
       </c>
       <c r="M48" t="n">
-        <v>1236</v>
+        <v>1592</v>
       </c>
       <c r="N48" t="n">
-        <v>26.0320134793597</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1014</v>
-      </c>
-      <c r="P48" t="n">
-        <v>21.3563605728728</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3291</v>
-      </c>
-      <c r="R48" t="n">
-        <v>69.3133951137321</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1592</v>
-      </c>
-      <c r="T48" t="n">
-        <v>33.5299073294019</v>
-      </c>
-      <c r="U48" t="n">
         <v>906</v>
-      </c>
-      <c r="V48" t="n">
-        <v>19.0817186183656</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C49" t="n">
         <v>154</v>
@@ -4200,57 +3024,33 @@
         <v>314331</v>
       </c>
       <c r="H49" t="n">
-        <v>0.101961469955797</v>
+        <v>164772</v>
       </c>
       <c r="I49" t="n">
-        <v>164772</v>
+        <v>149559</v>
       </c>
       <c r="J49" t="n">
-        <v>0.524199013142197</v>
+        <v>64957</v>
       </c>
       <c r="K49" t="n">
-        <v>149559</v>
+        <v>77962</v>
       </c>
       <c r="L49" t="n">
-        <v>0.475800986857803</v>
+        <v>231928</v>
       </c>
       <c r="M49" t="n">
-        <v>64957</v>
+        <v>126387</v>
       </c>
       <c r="N49" t="n">
-        <v>20.6651587021325</v>
-      </c>
-      <c r="O49" t="n">
-        <v>77962</v>
-      </c>
-      <c r="P49" t="n">
-        <v>24.8025170918554</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>231928</v>
-      </c>
-      <c r="R49" t="n">
-        <v>73.7846410312696</v>
-      </c>
-      <c r="S49" t="n">
-        <v>126387</v>
-      </c>
-      <c r="T49" t="n">
-        <v>40.2082518109891</v>
-      </c>
-      <c r="U49" t="n">
         <v>42791</v>
-      </c>
-      <c r="V49" t="n">
-        <v>13.6133566208869</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C50" t="n">
         <v>188.1</v>
@@ -4268,57 +3068,33 @@
         <v>18723</v>
       </c>
       <c r="H50" t="n">
-        <v>0.00607329408166039</v>
+        <v>9614</v>
       </c>
       <c r="I50" t="n">
-        <v>9614</v>
+        <v>9109</v>
       </c>
       <c r="J50" t="n">
-        <v>0.513486086631416</v>
+        <v>6653</v>
       </c>
       <c r="K50" t="n">
-        <v>9109</v>
+        <v>4283</v>
       </c>
       <c r="L50" t="n">
-        <v>0.486513913368584</v>
+        <v>10960</v>
       </c>
       <c r="M50" t="n">
-        <v>6653</v>
+        <v>5359</v>
       </c>
       <c r="N50" t="n">
-        <v>35.5338353896277</v>
-      </c>
-      <c r="O50" t="n">
-        <v>4283</v>
-      </c>
-      <c r="P50" t="n">
-        <v>22.8756075415265</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>10960</v>
-      </c>
-      <c r="R50" t="n">
-        <v>58.5376275169578</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5359</v>
-      </c>
-      <c r="T50" t="n">
-        <v>28.6225498050526</v>
-      </c>
-      <c r="U50" t="n">
         <v>2428</v>
-      </c>
-      <c r="V50" t="n">
-        <v>12.9680072637932</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C51" t="n">
         <v>91</v>
@@ -4336,57 +3112,33 @@
         <v>23641</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0076685758363795</v>
+        <v>12476</v>
       </c>
       <c r="I51" t="n">
-        <v>12476</v>
+        <v>11165</v>
       </c>
       <c r="J51" t="n">
-        <v>0.527727253500275</v>
+        <v>5631</v>
       </c>
       <c r="K51" t="n">
-        <v>11165</v>
+        <v>5500</v>
       </c>
       <c r="L51" t="n">
-        <v>0.472272746499725</v>
+        <v>16794</v>
       </c>
       <c r="M51" t="n">
-        <v>5631</v>
+        <v>9296</v>
       </c>
       <c r="N51" t="n">
-        <v>23.8187893913117</v>
-      </c>
-      <c r="O51" t="n">
-        <v>5500</v>
-      </c>
-      <c r="P51" t="n">
-        <v>23.2646673152574</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>16794</v>
-      </c>
-      <c r="R51" t="n">
-        <v>71.0376041622605</v>
-      </c>
-      <c r="S51" t="n">
-        <v>9296</v>
-      </c>
-      <c r="T51" t="n">
-        <v>39.3215177022969</v>
-      </c>
-      <c r="U51" t="n">
         <v>3211</v>
-      </c>
-      <c r="V51" t="n">
-        <v>13.5823357725985</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C52" t="n">
         <v>112.5</v>
@@ -4404,57 +3156,33 @@
         <v>202749</v>
       </c>
       <c r="H52" t="n">
-        <v>0.065766933812026</v>
+        <v>106490</v>
       </c>
       <c r="I52" t="n">
-        <v>106490</v>
+        <v>96259</v>
       </c>
       <c r="J52" t="n">
-        <v>0.525230703973879</v>
+        <v>46226</v>
       </c>
       <c r="K52" t="n">
-        <v>96259</v>
+        <v>52872</v>
       </c>
       <c r="L52" t="n">
-        <v>0.474769296026121</v>
+        <v>145587</v>
       </c>
       <c r="M52" t="n">
-        <v>46226</v>
+        <v>85737</v>
       </c>
       <c r="N52" t="n">
-        <v>22.7996192336337</v>
-      </c>
-      <c r="O52" t="n">
-        <v>52872</v>
-      </c>
-      <c r="P52" t="n">
-        <v>26.0775638844088</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>145587</v>
-      </c>
-      <c r="R52" t="n">
-        <v>71.8065193909711</v>
-      </c>
-      <c r="S52" t="n">
-        <v>85737</v>
-      </c>
-      <c r="T52" t="n">
-        <v>42.287261589453</v>
-      </c>
-      <c r="U52" t="n">
         <v>17477</v>
-      </c>
-      <c r="V52" t="n">
-        <v>8.62001785458868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C53" t="n">
         <v>297.4</v>
@@ -4472,57 +3200,33 @@
         <v>38891</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0126153116557098</v>
+        <v>19941</v>
       </c>
       <c r="I53" t="n">
-        <v>19941</v>
+        <v>18950</v>
       </c>
       <c r="J53" t="n">
-        <v>0.512740736931424</v>
+        <v>9500</v>
       </c>
       <c r="K53" t="n">
-        <v>18950</v>
+        <v>10010</v>
       </c>
       <c r="L53" t="n">
-        <v>0.487259263068576</v>
+        <v>27244</v>
       </c>
       <c r="M53" t="n">
-        <v>9500</v>
+        <v>14720</v>
       </c>
       <c r="N53" t="n">
-        <v>24.427245378108</v>
-      </c>
-      <c r="O53" t="n">
-        <v>10010</v>
-      </c>
-      <c r="P53" t="n">
-        <v>25.7386027615644</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>27244</v>
-      </c>
-      <c r="R53" t="n">
-        <v>70.0521971664395</v>
-      </c>
-      <c r="S53" t="n">
-        <v>14720</v>
-      </c>
-      <c r="T53" t="n">
-        <v>37.8493738911316</v>
-      </c>
-      <c r="U53" t="n">
         <v>4653</v>
-      </c>
-      <c r="V53" t="n">
-        <v>11.9642076572986</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C54" t="n">
         <v>359.4</v>
@@ -4540,57 +3244,33 @@
         <v>17699</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00574113293549684</v>
+        <v>8962</v>
       </c>
       <c r="I54" t="n">
-        <v>8962</v>
+        <v>8737</v>
       </c>
       <c r="J54" t="n">
-        <v>0.506356291315894</v>
+        <v>4882</v>
       </c>
       <c r="K54" t="n">
-        <v>8737</v>
+        <v>4301</v>
       </c>
       <c r="L54" t="n">
-        <v>0.493643708684106</v>
+        <v>11619</v>
       </c>
       <c r="M54" t="n">
-        <v>4882</v>
+        <v>5833</v>
       </c>
       <c r="N54" t="n">
-        <v>27.5834792926154</v>
-      </c>
-      <c r="O54" t="n">
-        <v>4301</v>
-      </c>
-      <c r="P54" t="n">
-        <v>24.3008079552517</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>11619</v>
-      </c>
-      <c r="R54" t="n">
-        <v>65.6477767105486</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5833</v>
-      </c>
-      <c r="T54" t="n">
-        <v>32.9566642183174</v>
-      </c>
-      <c r="U54" t="n">
         <v>2683</v>
-      </c>
-      <c r="V54" t="n">
-        <v>15.1590485338155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C55" t="n">
         <v>205.7</v>
@@ -4608,57 +3288,33 @@
         <v>36796</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0119357436857756</v>
+        <v>18927</v>
       </c>
       <c r="I55" t="n">
-        <v>18927</v>
+        <v>17869</v>
       </c>
       <c r="J55" t="n">
-        <v>0.514376562669855</v>
+        <v>9289</v>
       </c>
       <c r="K55" t="n">
-        <v>17869</v>
+        <v>8887</v>
       </c>
       <c r="L55" t="n">
-        <v>0.485623437330145</v>
+        <v>25479</v>
       </c>
       <c r="M55" t="n">
-        <v>9289</v>
+        <v>13629</v>
       </c>
       <c r="N55" t="n">
-        <v>25.2445918034569</v>
-      </c>
-      <c r="O55" t="n">
-        <v>8887</v>
-      </c>
-      <c r="P55" t="n">
-        <v>24.1520817480161</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>25479</v>
-      </c>
-      <c r="R55" t="n">
-        <v>69.2439395586477</v>
-      </c>
-      <c r="S55" t="n">
-        <v>13629</v>
-      </c>
-      <c r="T55" t="n">
-        <v>37.0393521034895</v>
-      </c>
-      <c r="U55" t="n">
         <v>4991</v>
-      </c>
-      <c r="V55" t="n">
-        <v>13.5639743450375</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C56" t="n">
         <v>256.2</v>
@@ -4676,57 +3332,33 @@
         <v>18329</v>
       </c>
       <c r="H56" t="n">
-        <v>0.00594548989065605</v>
+        <v>9383</v>
       </c>
       <c r="I56" t="n">
-        <v>9383</v>
+        <v>8946</v>
       </c>
       <c r="J56" t="n">
-        <v>0.511920999508975</v>
+        <v>4799</v>
       </c>
       <c r="K56" t="n">
-        <v>8946</v>
+        <v>4382</v>
       </c>
       <c r="L56" t="n">
-        <v>0.488079000491025</v>
+        <v>12547</v>
       </c>
       <c r="M56" t="n">
-        <v>4799</v>
+        <v>6765</v>
       </c>
       <c r="N56" t="n">
-        <v>26.1825522396203</v>
-      </c>
-      <c r="O56" t="n">
-        <v>4382</v>
-      </c>
-      <c r="P56" t="n">
-        <v>23.9074690381363</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>12547</v>
-      </c>
-      <c r="R56" t="n">
-        <v>68.4543619400949</v>
-      </c>
-      <c r="S56" t="n">
-        <v>6765</v>
-      </c>
-      <c r="T56" t="n">
-        <v>36.9087238801899</v>
-      </c>
-      <c r="U56" t="n">
         <v>2383</v>
-      </c>
-      <c r="V56" t="n">
-        <v>13.0012548420536</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C57" t="n">
         <v>64.3</v>
@@ -4744,57 +3376,33 @@
         <v>39561</v>
       </c>
       <c r="H57" t="n">
-        <v>0.012832643655641</v>
+        <v>20915</v>
       </c>
       <c r="I57" t="n">
-        <v>20915</v>
+        <v>18646</v>
       </c>
       <c r="J57" t="n">
-        <v>0.528677232628093</v>
+        <v>10098</v>
       </c>
       <c r="K57" t="n">
-        <v>18646</v>
+        <v>9878</v>
       </c>
       <c r="L57" t="n">
-        <v>0.471322767371907</v>
+        <v>27224</v>
       </c>
       <c r="M57" t="n">
-        <v>10098</v>
+        <v>15241</v>
       </c>
       <c r="N57" t="n">
-        <v>25.5251383938728</v>
-      </c>
-      <c r="O57" t="n">
-        <v>9878</v>
-      </c>
-      <c r="P57" t="n">
-        <v>24.9690351608908</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>27224</v>
-      </c>
-      <c r="R57" t="n">
-        <v>68.8152473395516</v>
-      </c>
-      <c r="S57" t="n">
-        <v>15241</v>
-      </c>
-      <c r="T57" t="n">
-        <v>38.5253153358105</v>
-      </c>
-      <c r="U57" t="n">
         <v>4317</v>
-      </c>
-      <c r="V57" t="n">
-        <v>10.9122620762873</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C58" t="n">
         <v>420.2</v>
@@ -4812,57 +3420,33 @@
         <v>15142</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00491170319844585</v>
+        <v>7763</v>
       </c>
       <c r="I58" t="n">
-        <v>7763</v>
+        <v>7379</v>
       </c>
       <c r="J58" t="n">
-        <v>0.512679963016775</v>
+        <v>4112</v>
       </c>
       <c r="K58" t="n">
-        <v>7379</v>
+        <v>3583</v>
       </c>
       <c r="L58" t="n">
-        <v>0.487320036983225</v>
+        <v>10183</v>
       </c>
       <c r="M58" t="n">
-        <v>4112</v>
+        <v>5491</v>
       </c>
       <c r="N58" t="n">
-        <v>27.1562541275921</v>
-      </c>
-      <c r="O58" t="n">
-        <v>3583</v>
-      </c>
-      <c r="P58" t="n">
-        <v>23.6626601505746</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>10183</v>
-      </c>
-      <c r="R58" t="n">
-        <v>67.250033020737</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5491</v>
-      </c>
-      <c r="T58" t="n">
-        <v>36.2633733984943</v>
-      </c>
-      <c r="U58" t="n">
         <v>1956</v>
-      </c>
-      <c r="V58" t="n">
-        <v>12.9177123233391</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C59" t="n">
         <v>240</v>
@@ -4880,57 +3464,33 @@
         <v>17441</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00565744389671735</v>
+        <v>9295</v>
       </c>
       <c r="I59" t="n">
-        <v>9295</v>
+        <v>8146</v>
       </c>
       <c r="J59" t="n">
-        <v>0.532939625021501</v>
+        <v>4306</v>
       </c>
       <c r="K59" t="n">
-        <v>8146</v>
+        <v>3877</v>
       </c>
       <c r="L59" t="n">
-        <v>0.467060374978499</v>
+        <v>12192</v>
       </c>
       <c r="M59" t="n">
-        <v>4306</v>
+        <v>6603</v>
       </c>
       <c r="N59" t="n">
-        <v>24.6889513215985</v>
-      </c>
-      <c r="O59" t="n">
-        <v>3877</v>
-      </c>
-      <c r="P59" t="n">
-        <v>22.2292299753455</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>12192</v>
-      </c>
-      <c r="R59" t="n">
-        <v>69.9042486095981</v>
-      </c>
-      <c r="S59" t="n">
-        <v>6603</v>
-      </c>
-      <c r="T59" t="n">
-        <v>37.8590677140072</v>
-      </c>
-      <c r="U59" t="n">
         <v>2650</v>
-      </c>
-      <c r="V59" t="n">
-        <v>15.1940829080901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C60" t="n">
         <v>525</v>
@@ -4948,57 +3508,33 @@
         <v>38010</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0123295362946062</v>
+        <v>19873</v>
       </c>
       <c r="I60" t="n">
-        <v>19873</v>
+        <v>18137</v>
       </c>
       <c r="J60" t="n">
-        <v>0.522836095764273</v>
+        <v>10209</v>
       </c>
       <c r="K60" t="n">
-        <v>18137</v>
+        <v>9128</v>
       </c>
       <c r="L60" t="n">
-        <v>0.477163904235727</v>
+        <v>25621</v>
       </c>
       <c r="M60" t="n">
-        <v>10209</v>
+        <v>13905</v>
       </c>
       <c r="N60" t="n">
-        <v>26.8587213891081</v>
-      </c>
-      <c r="O60" t="n">
-        <v>9128</v>
-      </c>
-      <c r="P60" t="n">
-        <v>24.0147329650092</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>25621</v>
-      </c>
-      <c r="R60" t="n">
-        <v>67.4059458037359</v>
-      </c>
-      <c r="S60" t="n">
-        <v>13905</v>
-      </c>
-      <c r="T60" t="n">
-        <v>36.5824782951855</v>
-      </c>
-      <c r="U60" t="n">
         <v>4762</v>
-      </c>
-      <c r="V60" t="n">
-        <v>12.5282820310445</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C61" t="n">
         <v>176.643100601936</v>
@@ -5016,57 +3552,33 @@
         <v>17503</v>
       </c>
       <c r="H61" t="n">
-        <v>0.00567755521611397</v>
+        <v>9108</v>
       </c>
       <c r="I61" t="n">
-        <v>9108</v>
+        <v>8395</v>
       </c>
       <c r="J61" t="n">
-        <v>0.520367936925098</v>
+        <v>5133</v>
       </c>
       <c r="K61" t="n">
-        <v>8395</v>
+        <v>4246</v>
       </c>
       <c r="L61" t="n">
-        <v>0.479632063074901</v>
+        <v>11396</v>
       </c>
       <c r="M61" t="n">
-        <v>5133</v>
+        <v>5736</v>
       </c>
       <c r="N61" t="n">
-        <v>29.3264011883677</v>
-      </c>
-      <c r="O61" t="n">
-        <v>4246</v>
-      </c>
-      <c r="P61" t="n">
-        <v>24.2586985088271</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>11396</v>
-      </c>
-      <c r="R61" t="n">
-        <v>65.1088384848312</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5736</v>
-      </c>
-      <c r="T61" t="n">
-        <v>32.7715248814489</v>
-      </c>
-      <c r="U61" t="n">
         <v>2388</v>
-      </c>
-      <c r="V61" t="n">
-        <v>13.6433754213563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C62" t="n">
         <v>242.9</v>
@@ -5084,57 +3596,33 @@
         <v>56245</v>
       </c>
       <c r="H62" t="n">
-        <v>0.018244534830048</v>
+        <v>29305</v>
       </c>
       <c r="I62" t="n">
-        <v>29305</v>
+        <v>26940</v>
       </c>
       <c r="J62" t="n">
-        <v>0.521024091030314</v>
+        <v>12392</v>
       </c>
       <c r="K62" t="n">
-        <v>26940</v>
+        <v>13411</v>
       </c>
       <c r="L62" t="n">
-        <v>0.478975908969686</v>
+        <v>40959</v>
       </c>
       <c r="M62" t="n">
-        <v>12392</v>
+        <v>21912</v>
       </c>
       <c r="N62" t="n">
-        <v>22.032180638279</v>
-      </c>
-      <c r="O62" t="n">
-        <v>13411</v>
-      </c>
-      <c r="P62" t="n">
-        <v>23.8438972353098</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>40959</v>
-      </c>
-      <c r="R62" t="n">
-        <v>72.8224731087208</v>
-      </c>
-      <c r="S62" t="n">
-        <v>21912</v>
-      </c>
-      <c r="T62" t="n">
-        <v>38.958129611521</v>
-      </c>
-      <c r="U62" t="n">
         <v>8512</v>
-      </c>
-      <c r="V62" t="n">
-        <v>15.1337896701929</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C63" t="n">
         <v>347.3</v>
@@ -5152,57 +3640,33 @@
         <v>31235</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0101318880863463</v>
+        <v>15667</v>
       </c>
       <c r="I63" t="n">
-        <v>15667</v>
+        <v>15568</v>
       </c>
       <c r="J63" t="n">
-        <v>0.501584760685129</v>
+        <v>10790</v>
       </c>
       <c r="K63" t="n">
-        <v>15568</v>
+        <v>7563</v>
       </c>
       <c r="L63" t="n">
-        <v>0.498415239314871</v>
+        <v>18618</v>
       </c>
       <c r="M63" t="n">
-        <v>10790</v>
+        <v>9306</v>
       </c>
       <c r="N63" t="n">
-        <v>34.5445813990716</v>
-      </c>
-      <c r="O63" t="n">
-        <v>7563</v>
-      </c>
-      <c r="P63" t="n">
-        <v>24.2132223467264</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>18618</v>
-      </c>
-      <c r="R63" t="n">
-        <v>59.606210981271</v>
-      </c>
-      <c r="S63" t="n">
-        <v>9306</v>
-      </c>
-      <c r="T63" t="n">
-        <v>29.7935008804226</v>
-      </c>
-      <c r="U63" t="n">
         <v>3576</v>
-      </c>
-      <c r="V63" t="n">
-        <v>11.4486953737794</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C64" t="n">
         <v>353.4</v>
@@ -5220,57 +3684,33 @@
         <v>90546</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0293709600981692</v>
+        <v>46484</v>
       </c>
       <c r="I64" t="n">
-        <v>46484</v>
+        <v>44062</v>
       </c>
       <c r="J64" t="n">
-        <v>0.513374417423188</v>
+        <v>23195</v>
       </c>
       <c r="K64" t="n">
-        <v>44062</v>
+        <v>22641</v>
       </c>
       <c r="L64" t="n">
-        <v>0.486625582576812</v>
+        <v>62603</v>
       </c>
       <c r="M64" t="n">
-        <v>23195</v>
+        <v>34976</v>
       </c>
       <c r="N64" t="n">
-        <v>25.616813553332</v>
-      </c>
-      <c r="O64" t="n">
-        <v>22641</v>
-      </c>
-      <c r="P64" t="n">
-        <v>25.0049698495792</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>62603</v>
-      </c>
-      <c r="R64" t="n">
-        <v>69.1394429350827</v>
-      </c>
-      <c r="S64" t="n">
-        <v>34976</v>
-      </c>
-      <c r="T64" t="n">
-        <v>38.6278797517284</v>
-      </c>
-      <c r="U64" t="n">
         <v>9699</v>
-      </c>
-      <c r="V64" t="n">
-        <v>10.7116824597442</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C65" t="n">
         <v>147.8</v>
@@ -5288,57 +3728,33 @@
         <v>10830</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00351299337202275</v>
+        <v>5575</v>
       </c>
       <c r="I65" t="n">
-        <v>5575</v>
+        <v>5255</v>
       </c>
       <c r="J65" t="n">
-        <v>0.51477377654663</v>
+        <v>2572</v>
       </c>
       <c r="K65" t="n">
-        <v>5255</v>
+        <v>2442</v>
       </c>
       <c r="L65" t="n">
-        <v>0.48522622345337</v>
+        <v>7731</v>
       </c>
       <c r="M65" t="n">
-        <v>2572</v>
+        <v>4047</v>
       </c>
       <c r="N65" t="n">
-        <v>23.7488457987073</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2442</v>
-      </c>
-      <c r="P65" t="n">
-        <v>22.5484764542936</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>7731</v>
-      </c>
-      <c r="R65" t="n">
-        <v>71.3850415512465</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4047</v>
-      </c>
-      <c r="T65" t="n">
-        <v>37.3684210526316</v>
-      </c>
-      <c r="U65" t="n">
         <v>1769</v>
-      </c>
-      <c r="V65" t="n">
-        <v>16.3342566943675</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C66" t="n">
         <v>44.941882796785</v>
@@ -5356,57 +3772,33 @@
         <v>11768</v>
       </c>
       <c r="H66" t="n">
-        <v>0.00381725817192648</v>
+        <v>6028</v>
       </c>
       <c r="I66" t="n">
-        <v>6028</v>
+        <v>5740</v>
       </c>
       <c r="J66" t="n">
-        <v>0.512236573759347</v>
+        <v>2901</v>
       </c>
       <c r="K66" t="n">
-        <v>5740</v>
+        <v>2916</v>
       </c>
       <c r="L66" t="n">
-        <v>0.487763426240653</v>
+        <v>8247</v>
       </c>
       <c r="M66" t="n">
-        <v>2901</v>
+        <v>4519</v>
       </c>
       <c r="N66" t="n">
-        <v>24.6515975526852</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2916</v>
-      </c>
-      <c r="P66" t="n">
-        <v>24.7790618626784</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>8247</v>
-      </c>
-      <c r="R66" t="n">
-        <v>70.0798776342624</v>
-      </c>
-      <c r="S66" t="n">
-        <v>4519</v>
-      </c>
-      <c r="T66" t="n">
-        <v>38.4007477906186</v>
-      </c>
-      <c r="U66" t="n">
         <v>1427</v>
-      </c>
-      <c r="V66" t="n">
-        <v>12.1261046906866</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C67" t="n">
         <v>90.7</v>
@@ -5424,57 +3816,33 @@
         <v>13032</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00422726958672212</v>
+        <v>6706</v>
       </c>
       <c r="I67" t="n">
-        <v>6706</v>
+        <v>6326</v>
       </c>
       <c r="J67" t="n">
-        <v>0.514579496623696</v>
+        <v>3335</v>
       </c>
       <c r="K67" t="n">
-        <v>6326</v>
+        <v>3436</v>
       </c>
       <c r="L67" t="n">
-        <v>0.485420503376304</v>
+        <v>9001</v>
       </c>
       <c r="M67" t="n">
-        <v>3335</v>
+        <v>4809</v>
       </c>
       <c r="N67" t="n">
-        <v>25.5908532842234</v>
-      </c>
-      <c r="O67" t="n">
-        <v>3436</v>
-      </c>
-      <c r="P67" t="n">
-        <v>26.365868631062</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>9001</v>
-      </c>
-      <c r="R67" t="n">
-        <v>69.0684468999386</v>
-      </c>
-      <c r="S67" t="n">
-        <v>4809</v>
-      </c>
-      <c r="T67" t="n">
-        <v>36.9014732965009</v>
-      </c>
-      <c r="U67" t="n">
         <v>1452</v>
-      </c>
-      <c r="V67" t="n">
-        <v>11.1418047882136</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C68" t="n">
         <v>163.3</v>
@@ -5492,57 +3860,33 @@
         <v>55134</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0178841529615053</v>
+        <v>28045</v>
       </c>
       <c r="I68" t="n">
-        <v>28045</v>
+        <v>27089</v>
       </c>
       <c r="J68" t="n">
-        <v>0.508669786338738</v>
+        <v>14575</v>
       </c>
       <c r="K68" t="n">
-        <v>27089</v>
+        <v>13915</v>
       </c>
       <c r="L68" t="n">
-        <v>0.491330213661262</v>
+        <v>37414</v>
       </c>
       <c r="M68" t="n">
-        <v>14575</v>
+        <v>20628</v>
       </c>
       <c r="N68" t="n">
-        <v>26.4355932818225</v>
-      </c>
-      <c r="O68" t="n">
-        <v>13915</v>
-      </c>
-      <c r="P68" t="n">
-        <v>25.2385098124569</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>37414</v>
-      </c>
-      <c r="R68" t="n">
-        <v>67.8601226103675</v>
-      </c>
-      <c r="S68" t="n">
-        <v>20628</v>
-      </c>
-      <c r="T68" t="n">
-        <v>37.4142997061704</v>
-      </c>
-      <c r="U68" t="n">
         <v>6014</v>
-      </c>
-      <c r="V68" t="n">
-        <v>10.9079696738854</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C69" t="n">
         <v>265.7</v>
@@ -5560,57 +3904,33 @@
         <v>14340</v>
       </c>
       <c r="H69" t="n">
-        <v>0.00465155355076697</v>
+        <v>7322</v>
       </c>
       <c r="I69" t="n">
-        <v>7322</v>
+        <v>7018</v>
       </c>
       <c r="J69" t="n">
-        <v>0.510599721059972</v>
+        <v>4185</v>
       </c>
       <c r="K69" t="n">
-        <v>7018</v>
+        <v>3190</v>
       </c>
       <c r="L69" t="n">
-        <v>0.489400278940028</v>
+        <v>9385</v>
       </c>
       <c r="M69" t="n">
-        <v>4185</v>
+        <v>4708</v>
       </c>
       <c r="N69" t="n">
-        <v>29.18410041841</v>
-      </c>
-      <c r="O69" t="n">
-        <v>3190</v>
-      </c>
-      <c r="P69" t="n">
-        <v>22.2454672245467</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>9385</v>
-      </c>
-      <c r="R69" t="n">
-        <v>65.4463040446304</v>
-      </c>
-      <c r="S69" t="n">
-        <v>4708</v>
-      </c>
-      <c r="T69" t="n">
-        <v>32.8312412831241</v>
-      </c>
-      <c r="U69" t="n">
         <v>2257</v>
-      </c>
-      <c r="V69" t="n">
-        <v>15.7391910739191</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C70" t="n">
         <v>76.8</v>
@@ -5628,57 +3948,33 @@
         <v>168302</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0545931496304869</v>
+        <v>86255</v>
       </c>
       <c r="I70" t="n">
-        <v>86255</v>
+        <v>82047</v>
       </c>
       <c r="J70" t="n">
-        <v>0.512501336882509</v>
+        <v>46159</v>
       </c>
       <c r="K70" t="n">
-        <v>82047</v>
+        <v>40865</v>
       </c>
       <c r="L70" t="n">
-        <v>0.487498663117491</v>
+        <v>112367</v>
       </c>
       <c r="M70" t="n">
-        <v>46159</v>
+        <v>67945</v>
       </c>
       <c r="N70" t="n">
-        <v>27.4262932110135</v>
-      </c>
-      <c r="O70" t="n">
-        <v>40865</v>
-      </c>
-      <c r="P70" t="n">
-        <v>24.280757210253</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>112367</v>
-      </c>
-      <c r="R70" t="n">
-        <v>66.7651008306497</v>
-      </c>
-      <c r="S70" t="n">
-        <v>67945</v>
-      </c>
-      <c r="T70" t="n">
-        <v>40.3708809164478</v>
-      </c>
-      <c r="U70" t="n">
         <v>13266</v>
-      </c>
-      <c r="V70" t="n">
-        <v>7.88225927202291</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C71" t="n">
         <v>31.5</v>
@@ -5696,57 +3992,33 @@
         <v>19067</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00618487946669971</v>
+        <v>9763</v>
       </c>
       <c r="I71" t="n">
-        <v>9763</v>
+        <v>9304</v>
       </c>
       <c r="J71" t="n">
-        <v>0.512036502858342</v>
+        <v>4816</v>
       </c>
       <c r="K71" t="n">
-        <v>9304</v>
+        <v>4797</v>
       </c>
       <c r="L71" t="n">
-        <v>0.487963497141658</v>
+        <v>13124</v>
       </c>
       <c r="M71" t="n">
-        <v>4816</v>
+        <v>7288</v>
       </c>
       <c r="N71" t="n">
-        <v>25.2582996800755</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4797</v>
-      </c>
-      <c r="P71" t="n">
-        <v>25.1586510725337</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>13124</v>
-      </c>
-      <c r="R71" t="n">
-        <v>68.8309644936277</v>
-      </c>
-      <c r="S71" t="n">
-        <v>7288</v>
-      </c>
-      <c r="T71" t="n">
-        <v>38.2231079876226</v>
-      </c>
-      <c r="U71" t="n">
         <v>2160</v>
-      </c>
-      <c r="V71" t="n">
-        <v>11.3284732784392</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C72" t="n">
         <v>531.6</v>
@@ -5764,57 +4036,33 @@
         <v>9086</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00294728141996295</v>
+        <v>4675</v>
       </c>
       <c r="I72" t="n">
-        <v>4675</v>
+        <v>4411</v>
       </c>
       <c r="J72" t="n">
-        <v>0.51452784503632</v>
+        <v>2312</v>
       </c>
       <c r="K72" t="n">
-        <v>4411</v>
+        <v>1806</v>
       </c>
       <c r="L72" t="n">
-        <v>0.48547215496368</v>
+        <v>6285</v>
       </c>
       <c r="M72" t="n">
-        <v>2312</v>
+        <v>3155</v>
       </c>
       <c r="N72" t="n">
-        <v>25.445740699978</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1806</v>
-      </c>
-      <c r="P72" t="n">
-        <v>19.8767334360555</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>6285</v>
-      </c>
-      <c r="R72" t="n">
-        <v>69.1723530706582</v>
-      </c>
-      <c r="S72" t="n">
-        <v>3155</v>
-      </c>
-      <c r="T72" t="n">
-        <v>34.7237508254457</v>
-      </c>
-      <c r="U72" t="n">
         <v>1813</v>
-      </c>
-      <c r="V72" t="n">
-        <v>19.9537750385208</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C73" t="n">
         <v>82.9</v>
@@ -5832,57 +4080,33 @@
         <v>11113</v>
       </c>
       <c r="H73" t="n">
-        <v>0.00360479181378475</v>
+        <v>5747</v>
       </c>
       <c r="I73" t="n">
-        <v>5747</v>
+        <v>5366</v>
       </c>
       <c r="J73" t="n">
-        <v>0.517142085845406</v>
+        <v>2483</v>
       </c>
       <c r="K73" t="n">
-        <v>5366</v>
+        <v>2585</v>
       </c>
       <c r="L73" t="n">
-        <v>0.482857914154594</v>
+        <v>8109</v>
       </c>
       <c r="M73" t="n">
-        <v>2483</v>
+        <v>4362</v>
       </c>
       <c r="N73" t="n">
-        <v>22.3432016557185</v>
-      </c>
-      <c r="O73" t="n">
-        <v>2585</v>
-      </c>
-      <c r="P73" t="n">
-        <v>23.2610456222442</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>8109</v>
-      </c>
-      <c r="R73" t="n">
-        <v>72.9685953387924</v>
-      </c>
-      <c r="S73" t="n">
-        <v>4362</v>
-      </c>
-      <c r="T73" t="n">
-        <v>39.2513272743634</v>
-      </c>
-      <c r="U73" t="n">
         <v>1683</v>
-      </c>
-      <c r="V73" t="n">
-        <v>15.1444254476739</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C74" t="n">
         <v>392.1</v>
@@ -5900,57 +4124,33 @@
         <v>37722</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0122361159722477</v>
+        <v>19245</v>
       </c>
       <c r="I74" t="n">
-        <v>19245</v>
+        <v>18477</v>
       </c>
       <c r="J74" t="n">
-        <v>0.510179735963098</v>
+        <v>11867</v>
       </c>
       <c r="K74" t="n">
-        <v>18477</v>
+        <v>8903</v>
       </c>
       <c r="L74" t="n">
-        <v>0.489820264036902</v>
+        <v>23481</v>
       </c>
       <c r="M74" t="n">
-        <v>11867</v>
+        <v>12196</v>
       </c>
       <c r="N74" t="n">
-        <v>31.4590954880441</v>
-      </c>
-      <c r="O74" t="n">
-        <v>8903</v>
-      </c>
-      <c r="P74" t="n">
-        <v>23.6016117915275</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>23481</v>
-      </c>
-      <c r="R74" t="n">
-        <v>62.2474948306028</v>
-      </c>
-      <c r="S74" t="n">
-        <v>12196</v>
-      </c>
-      <c r="T74" t="n">
-        <v>32.3312655744658</v>
-      </c>
-      <c r="U74" t="n">
         <v>4754</v>
-      </c>
-      <c r="V74" t="n">
-        <v>12.6027252001485</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C75" t="n">
         <v>39</v>
@@ -5968,57 +4168,33 @@
         <v>28626</v>
       </c>
       <c r="H75" t="n">
-        <v>0.00928559079109172</v>
+        <v>14720</v>
       </c>
       <c r="I75" t="n">
-        <v>14720</v>
+        <v>13906</v>
       </c>
       <c r="J75" t="n">
-        <v>0.514217843918116</v>
+        <v>6912</v>
       </c>
       <c r="K75" t="n">
-        <v>13906</v>
+        <v>7105</v>
       </c>
       <c r="L75" t="n">
-        <v>0.485782156081884</v>
+        <v>20182</v>
       </c>
       <c r="M75" t="n">
-        <v>6912</v>
+        <v>11244</v>
       </c>
       <c r="N75" t="n">
-        <v>24.1458813665898</v>
-      </c>
-      <c r="O75" t="n">
-        <v>7105</v>
-      </c>
-      <c r="P75" t="n">
-        <v>24.8200936211835</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>20182</v>
-      </c>
-      <c r="R75" t="n">
-        <v>70.5023405295885</v>
-      </c>
-      <c r="S75" t="n">
-        <v>11244</v>
-      </c>
-      <c r="T75" t="n">
-        <v>39.2789771536365</v>
-      </c>
-      <c r="U75" t="n">
         <v>3360</v>
-      </c>
-      <c r="V75" t="n">
-        <v>11.73758121987</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C76" t="n">
         <v>128.8</v>
@@ -6036,57 +4212,33 @@
         <v>21362</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00692932266049401</v>
+        <v>11058</v>
       </c>
       <c r="I76" t="n">
-        <v>11058</v>
+        <v>10304</v>
       </c>
       <c r="J76" t="n">
-        <v>0.517648160284618</v>
+        <v>5529</v>
       </c>
       <c r="K76" t="n">
-        <v>10304</v>
+        <v>5190</v>
       </c>
       <c r="L76" t="n">
-        <v>0.482351839715382</v>
+        <v>14718</v>
       </c>
       <c r="M76" t="n">
-        <v>5529</v>
+        <v>8466</v>
       </c>
       <c r="N76" t="n">
-        <v>25.8824080142309</v>
-      </c>
-      <c r="O76" t="n">
-        <v>5190</v>
-      </c>
-      <c r="P76" t="n">
-        <v>24.2954779515027</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>14718</v>
-      </c>
-      <c r="R76" t="n">
-        <v>68.8980432543769</v>
-      </c>
-      <c r="S76" t="n">
-        <v>8466</v>
-      </c>
-      <c r="T76" t="n">
-        <v>39.6311206815841</v>
-      </c>
-      <c r="U76" t="n">
         <v>2175</v>
-      </c>
-      <c r="V76" t="n">
-        <v>10.1816309334332</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C77" t="n">
         <v>336.1</v>
@@ -6104,57 +4256,33 @@
         <v>115107</v>
       </c>
       <c r="H77" t="n">
-        <v>0.037337961964305</v>
+        <v>59519</v>
       </c>
       <c r="I77" t="n">
-        <v>59519</v>
+        <v>55588</v>
       </c>
       <c r="J77" t="n">
-        <v>0.517075416786121</v>
+        <v>26838</v>
       </c>
       <c r="K77" t="n">
-        <v>55588</v>
+        <v>26958</v>
       </c>
       <c r="L77" t="n">
-        <v>0.482924583213879</v>
+        <v>82498</v>
       </c>
       <c r="M77" t="n">
-        <v>26838</v>
+        <v>46520</v>
       </c>
       <c r="N77" t="n">
-        <v>23.3156975683494</v>
-      </c>
-      <c r="O77" t="n">
-        <v>26958</v>
-      </c>
-      <c r="P77" t="n">
-        <v>23.4199483958404</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>82498</v>
-      </c>
-      <c r="R77" t="n">
-        <v>71.6707063862319</v>
-      </c>
-      <c r="S77" t="n">
-        <v>46520</v>
-      </c>
-      <c r="T77" t="n">
-        <v>40.4145707906557</v>
-      </c>
-      <c r="U77" t="n">
         <v>14708</v>
-      </c>
-      <c r="V77" t="n">
-        <v>12.7776764228066</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C78" t="n">
         <v>217.4</v>
@@ -6172,57 +4300,33 @@
         <v>168369</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0546148828304801</v>
+        <v>88602</v>
       </c>
       <c r="I78" t="n">
-        <v>88602</v>
+        <v>79767</v>
       </c>
       <c r="J78" t="n">
-        <v>0.526237015127488</v>
+        <v>42768</v>
       </c>
       <c r="K78" t="n">
-        <v>79767</v>
+        <v>41648</v>
       </c>
       <c r="L78" t="n">
-        <v>0.473762984872512</v>
+        <v>116362</v>
       </c>
       <c r="M78" t="n">
-        <v>42768</v>
+        <v>64493</v>
       </c>
       <c r="N78" t="n">
-        <v>25.4013506049213</v>
-      </c>
-      <c r="O78" t="n">
-        <v>41648</v>
-      </c>
-      <c r="P78" t="n">
-        <v>24.7361450148186</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>116362</v>
-      </c>
-      <c r="R78" t="n">
-        <v>69.1112972102941</v>
-      </c>
-      <c r="S78" t="n">
-        <v>64493</v>
-      </c>
-      <c r="T78" t="n">
-        <v>38.3045572522258</v>
-      </c>
-      <c r="U78" t="n">
         <v>19373</v>
-      </c>
-      <c r="V78" t="n">
-        <v>11.5062749080888</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C79" t="n">
         <v>135.4</v>
@@ -6240,57 +4344,33 @@
         <v>18260</v>
       </c>
       <c r="H79" t="n">
-        <v>0.00592310793842433</v>
+        <v>9417</v>
       </c>
       <c r="I79" t="n">
-        <v>9417</v>
+        <v>8843</v>
       </c>
       <c r="J79" t="n">
-        <v>0.515717415115005</v>
+        <v>5632</v>
       </c>
       <c r="K79" t="n">
-        <v>8843</v>
+        <v>3988</v>
       </c>
       <c r="L79" t="n">
-        <v>0.484282584884995</v>
+        <v>11368</v>
       </c>
       <c r="M79" t="n">
-        <v>5632</v>
+        <v>5889</v>
       </c>
       <c r="N79" t="n">
-        <v>30.8433734939759</v>
-      </c>
-      <c r="O79" t="n">
-        <v>3988</v>
-      </c>
-      <c r="P79" t="n">
-        <v>21.8400876232202</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>11368</v>
-      </c>
-      <c r="R79" t="n">
-        <v>62.2562979189485</v>
-      </c>
-      <c r="S79" t="n">
-        <v>5889</v>
-      </c>
-      <c r="T79" t="n">
-        <v>32.2508214676889</v>
-      </c>
-      <c r="U79" t="n">
         <v>2751</v>
-      </c>
-      <c r="V79" t="n">
-        <v>15.065717415115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C80" t="n">
         <v>176.8</v>
@@ -6308,57 +4388,33 @@
         <v>7015</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00227549847689193</v>
+        <v>3561</v>
       </c>
       <c r="I80" t="n">
-        <v>3561</v>
+        <v>3454</v>
       </c>
       <c r="J80" t="n">
-        <v>0.507626514611547</v>
+        <v>1617</v>
       </c>
       <c r="K80" t="n">
-        <v>3454</v>
+        <v>1491</v>
       </c>
       <c r="L80" t="n">
-        <v>0.492373485388453</v>
+        <v>4982</v>
       </c>
       <c r="M80" t="n">
-        <v>1617</v>
+        <v>2460</v>
       </c>
       <c r="N80" t="n">
-        <v>23.0506058446187</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1491</v>
-      </c>
-      <c r="P80" t="n">
-        <v>21.2544547398432</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>4982</v>
-      </c>
-      <c r="R80" t="n">
-        <v>71.0192444761226</v>
-      </c>
-      <c r="S80" t="n">
-        <v>2460</v>
-      </c>
-      <c r="T80" t="n">
-        <v>35.0677120456165</v>
-      </c>
-      <c r="U80" t="n">
         <v>1447</v>
-      </c>
-      <c r="V80" t="n">
-        <v>20.6272273699216</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C81" t="n">
         <v>154.4</v>
@@ -6376,57 +4432,33 @@
         <v>24674</v>
       </c>
       <c r="H81" t="n">
-        <v>0.00800365636761675</v>
+        <v>12614</v>
       </c>
       <c r="I81" t="n">
-        <v>12614</v>
+        <v>12060</v>
       </c>
       <c r="J81" t="n">
-        <v>0.511226392153684</v>
+        <v>7373</v>
       </c>
       <c r="K81" t="n">
-        <v>12060</v>
+        <v>5940</v>
       </c>
       <c r="L81" t="n">
-        <v>0.488773607846316</v>
+        <v>15544</v>
       </c>
       <c r="M81" t="n">
-        <v>7373</v>
+        <v>7839</v>
       </c>
       <c r="N81" t="n">
-        <v>29.8816568047337</v>
-      </c>
-      <c r="O81" t="n">
-        <v>5940</v>
-      </c>
-      <c r="P81" t="n">
-        <v>24.0739239685499</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>15544</v>
-      </c>
-      <c r="R81" t="n">
-        <v>62.9974872335252</v>
-      </c>
-      <c r="S81" t="n">
-        <v>7839</v>
-      </c>
-      <c r="T81" t="n">
-        <v>31.7702845100105</v>
-      </c>
-      <c r="U81" t="n">
         <v>3518</v>
-      </c>
-      <c r="V81" t="n">
-        <v>14.257923320094</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C82" t="n">
         <v>272.7</v>
@@ -6444,57 +4476,33 @@
         <v>38155</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0123765708319047</v>
+        <v>20018</v>
       </c>
       <c r="I82" t="n">
-        <v>20018</v>
+        <v>18137</v>
       </c>
       <c r="J82" t="n">
-        <v>0.52464945616564</v>
+        <v>10354</v>
       </c>
       <c r="K82" t="n">
-        <v>18137</v>
+        <v>10195</v>
       </c>
       <c r="L82" t="n">
-        <v>0.47535054383436</v>
+        <v>25619</v>
       </c>
       <c r="M82" t="n">
-        <v>10354</v>
+        <v>13743</v>
       </c>
       <c r="N82" t="n">
-        <v>27.1366793342943</v>
-      </c>
-      <c r="O82" t="n">
-        <v>10195</v>
-      </c>
-      <c r="P82" t="n">
-        <v>26.7199580657843</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>25619</v>
-      </c>
-      <c r="R82" t="n">
-        <v>67.1445419997379</v>
-      </c>
-      <c r="S82" t="n">
-        <v>13743</v>
-      </c>
-      <c r="T82" t="n">
-        <v>36.0188703970646</v>
-      </c>
-      <c r="U82" t="n">
         <v>3862</v>
-      </c>
-      <c r="V82" t="n">
-        <v>10.1218713143756</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C83" t="n">
         <v>105.3</v>
@@ -6512,57 +4520,33 @@
         <v>21443</v>
       </c>
       <c r="H83" t="n">
-        <v>0.00695559712615733</v>
+        <v>11101</v>
       </c>
       <c r="I83" t="n">
-        <v>11101</v>
+        <v>10342</v>
       </c>
       <c r="J83" t="n">
-        <v>0.517698083290584</v>
+        <v>5221</v>
       </c>
       <c r="K83" t="n">
-        <v>10342</v>
+        <v>5254</v>
       </c>
       <c r="L83" t="n">
-        <v>0.482301916709416</v>
+        <v>15023</v>
       </c>
       <c r="M83" t="n">
-        <v>5221</v>
+        <v>8310</v>
       </c>
       <c r="N83" t="n">
-        <v>24.34827216341</v>
-      </c>
-      <c r="O83" t="n">
-        <v>5254</v>
-      </c>
-      <c r="P83" t="n">
-        <v>24.5021685398498</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>15023</v>
-      </c>
-      <c r="R83" t="n">
-        <v>70.0601594926083</v>
-      </c>
-      <c r="S83" t="n">
-        <v>8310</v>
-      </c>
-      <c r="T83" t="n">
-        <v>38.753905703493</v>
-      </c>
-      <c r="U83" t="n">
         <v>2657</v>
-      </c>
-      <c r="V83" t="n">
-        <v>12.3909900666884</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C84" t="n">
         <v>319.9</v>
@@ -6580,57 +4564,33 @@
         <v>57906</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0187833235642059</v>
+        <v>30000</v>
       </c>
       <c r="I84" t="n">
-        <v>30000</v>
+        <v>27906</v>
       </c>
       <c r="J84" t="n">
-        <v>0.518081027872759</v>
+        <v>13943</v>
       </c>
       <c r="K84" t="n">
-        <v>27906</v>
+        <v>13853</v>
       </c>
       <c r="L84" t="n">
-        <v>0.481918972127241</v>
+        <v>40988</v>
       </c>
       <c r="M84" t="n">
-        <v>13943</v>
+        <v>23606</v>
       </c>
       <c r="N84" t="n">
-        <v>24.0786792387663</v>
-      </c>
-      <c r="O84" t="n">
-        <v>13853</v>
-      </c>
-      <c r="P84" t="n">
-        <v>23.9232549304044</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>40988</v>
-      </c>
-      <c r="R84" t="n">
-        <v>70.7836839014955</v>
-      </c>
-      <c r="S84" t="n">
-        <v>23606</v>
-      </c>
-      <c r="T84" t="n">
-        <v>40.7660691465479</v>
-      </c>
-      <c r="U84" t="n">
         <v>6496</v>
-      </c>
-      <c r="V84" t="n">
-        <v>11.2181811902048</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C85" t="n">
         <v>872.5</v>
@@ -6648,49 +4608,25 @@
         <v>39927</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0129513653153049</v>
+        <v>21028</v>
       </c>
       <c r="I85" t="n">
-        <v>21028</v>
+        <v>18899</v>
       </c>
       <c r="J85" t="n">
-        <v>0.526661156610815</v>
+        <v>10621</v>
       </c>
       <c r="K85" t="n">
-        <v>18899</v>
+        <v>9627</v>
       </c>
       <c r="L85" t="n">
-        <v>0.473338843389185</v>
+        <v>27122</v>
       </c>
       <c r="M85" t="n">
-        <v>10621</v>
+        <v>14176</v>
       </c>
       <c r="N85" t="n">
-        <v>26.6010469106119</v>
-      </c>
-      <c r="O85" t="n">
-        <v>9627</v>
-      </c>
-      <c r="P85" t="n">
-        <v>24.1115034938763</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>27122</v>
-      </c>
-      <c r="R85" t="n">
-        <v>67.9289703709269</v>
-      </c>
-      <c r="S85" t="n">
-        <v>14176</v>
-      </c>
-      <c r="T85" t="n">
-        <v>35.504796253162</v>
-      </c>
-      <c r="U85" t="n">
         <v>5503</v>
-      </c>
-      <c r="V85" t="n">
-        <v>13.7826533423498</v>
       </c>
     </row>
   </sheetData>
